--- a/raw_data/20200818_saline/20200818_Sensor1_Test_32.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor1_Test_32.xlsx
@@ -1,1671 +1,2087 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B208CC-B610-4C82-9C39-190CB9DED195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>28088.140687</v>
+        <v>28088.140686999999</v>
       </c>
       <c r="B2" s="1">
-        <v>7.802261</v>
+        <v>7.8022609999999997</v>
       </c>
       <c r="C2" s="1">
-        <v>900.741000</v>
+        <v>900.74099999999999</v>
       </c>
       <c r="D2" s="1">
-        <v>-202.280000</v>
+        <v>-202.28</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>28098.873119</v>
       </c>
       <c r="G2" s="1">
-        <v>7.805243</v>
+        <v>7.8052429999999999</v>
       </c>
       <c r="H2" s="1">
-        <v>919.192000</v>
+        <v>919.19200000000001</v>
       </c>
       <c r="I2" s="1">
-        <v>-170.781000</v>
+        <v>-170.78100000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>28109.616961</v>
       </c>
       <c r="L2" s="1">
-        <v>7.808227</v>
+        <v>7.8082269999999996</v>
       </c>
       <c r="M2" s="1">
-        <v>942.353000</v>
+        <v>942.35299999999995</v>
       </c>
       <c r="N2" s="1">
-        <v>-121.007000</v>
+        <v>-121.00700000000001</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>28119.820660</v>
+        <v>28119.820660000001</v>
       </c>
       <c r="Q2" s="1">
-        <v>7.811061</v>
+        <v>7.8110609999999996</v>
       </c>
       <c r="R2" s="1">
-        <v>949.016000</v>
+        <v>949.01599999999996</v>
       </c>
       <c r="S2" s="1">
-        <v>-104.236000</v>
+        <v>-104.236</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>28130.153813</v>
+        <v>28130.153813000001</v>
       </c>
       <c r="V2" s="1">
-        <v>7.813932</v>
+        <v>7.8139320000000003</v>
       </c>
       <c r="W2" s="1">
-        <v>955.601000</v>
+        <v>955.601</v>
       </c>
       <c r="X2" s="1">
-        <v>-88.886700</v>
+        <v>-88.886700000000005</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>28140.258312</v>
+        <v>28140.258312000002</v>
       </c>
       <c r="AA2" s="1">
         <v>7.816738</v>
       </c>
       <c r="AB2" s="1">
-        <v>962.596000</v>
+        <v>962.596</v>
       </c>
       <c r="AC2" s="1">
-        <v>-76.916400</v>
+        <v>-76.916399999999996</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>28150.523057</v>
+        <v>28150.523056999999</v>
       </c>
       <c r="AF2" s="1">
-        <v>7.819590</v>
+        <v>7.8195899999999998</v>
       </c>
       <c r="AG2" s="1">
-        <v>967.113000</v>
+        <v>967.11300000000006</v>
       </c>
       <c r="AH2" s="1">
-        <v>-74.558000</v>
+        <v>-74.558000000000007</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>28160.961326</v>
+        <v>28160.961326000001</v>
       </c>
       <c r="AK2" s="1">
         <v>7.822489</v>
       </c>
       <c r="AL2" s="1">
-        <v>974.204000</v>
+        <v>974.20399999999995</v>
       </c>
       <c r="AM2" s="1">
-        <v>-79.096500</v>
+        <v>-79.096500000000006</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>28171.234465</v>
+        <v>28171.234465000001</v>
       </c>
       <c r="AP2" s="1">
-        <v>7.825343</v>
+        <v>7.8253430000000002</v>
       </c>
       <c r="AQ2" s="1">
-        <v>982.122000</v>
+        <v>982.12199999999996</v>
       </c>
       <c r="AR2" s="1">
-        <v>-90.483800</v>
+        <v>-90.483800000000002</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>28182.156898</v>
+        <v>28182.156898000001</v>
       </c>
       <c r="AU2" s="1">
-        <v>7.828377</v>
+        <v>7.8283769999999997</v>
       </c>
       <c r="AV2" s="1">
-        <v>991.781000</v>
+        <v>991.78099999999995</v>
       </c>
       <c r="AW2" s="1">
-        <v>-107.992000</v>
+        <v>-107.992</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>28193.329250</v>
+        <v>28193.329249999999</v>
       </c>
       <c r="AZ2" s="1">
-        <v>7.831480</v>
+        <v>7.83148</v>
       </c>
       <c r="BA2" s="1">
-        <v>999.868000</v>
+        <v>999.86800000000005</v>
       </c>
       <c r="BB2" s="1">
-        <v>-123.513000</v>
+        <v>-123.51300000000001</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>28204.266037</v>
+        <v>28204.266037000001</v>
       </c>
       <c r="BE2" s="1">
-        <v>7.834518</v>
+        <v>7.8345180000000001</v>
       </c>
       <c r="BF2" s="1">
-        <v>1037.910000</v>
+        <v>1037.9100000000001</v>
       </c>
       <c r="BG2" s="1">
-        <v>-195.251000</v>
+        <v>-195.251</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>28215.323845</v>
+        <v>28215.323844999999</v>
       </c>
       <c r="BJ2" s="1">
-        <v>7.837590</v>
+        <v>7.8375899999999996</v>
       </c>
       <c r="BK2" s="1">
-        <v>1103.930000</v>
+        <v>1103.93</v>
       </c>
       <c r="BL2" s="1">
-        <v>-312.018000</v>
+        <v>-312.01799999999997</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>28226.697110</v>
+        <v>28226.697110000001</v>
       </c>
       <c r="BO2" s="1">
-        <v>7.840749</v>
+        <v>7.8407489999999997</v>
       </c>
       <c r="BP2" s="1">
-        <v>1211.720000</v>
+        <v>1211.72</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-495.939000</v>
+        <v>-495.93900000000002</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>28238.225127</v>
+        <v>28238.225127000002</v>
       </c>
       <c r="BT2" s="1">
-        <v>7.843951</v>
+        <v>7.8439509999999997</v>
       </c>
       <c r="BU2" s="1">
-        <v>1332.830000</v>
+        <v>1332.83</v>
       </c>
       <c r="BV2" s="1">
-        <v>-697.206000</v>
+        <v>-697.20600000000002</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>28248.879689</v>
+        <v>28248.879689000001</v>
       </c>
       <c r="BY2" s="1">
-        <v>7.846911</v>
+        <v>7.8469110000000004</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1468.830000</v>
+        <v>1468.83</v>
       </c>
       <c r="CA2" s="1">
-        <v>-912.132000</v>
+        <v>-912.13199999999995</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>28259.968282</v>
+        <v>28259.968282000002</v>
       </c>
       <c r="CD2" s="1">
-        <v>7.849991</v>
+        <v>7.8499910000000002</v>
       </c>
       <c r="CE2" s="1">
-        <v>1824.660000</v>
+        <v>1824.66</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1423.090000</v>
+        <v>-1423.09</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>28088.507229</v>
+        <v>28088.507228999999</v>
       </c>
       <c r="B3" s="1">
-        <v>7.802363</v>
+        <v>7.8023629999999997</v>
       </c>
       <c r="C3" s="1">
-        <v>900.680000</v>
+        <v>900.68</v>
       </c>
       <c r="D3" s="1">
-        <v>-202.191000</v>
+        <v>-202.191</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>28099.527342</v>
+        <v>28099.527342000001</v>
       </c>
       <c r="G3" s="1">
-        <v>7.805424</v>
+        <v>7.8054240000000004</v>
       </c>
       <c r="H3" s="1">
-        <v>919.141000</v>
+        <v>919.14099999999996</v>
       </c>
       <c r="I3" s="1">
-        <v>-170.683000</v>
+        <v>-170.68299999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>28109.727073</v>
+        <v>28109.727072999998</v>
       </c>
       <c r="L3" s="1">
-        <v>7.808258</v>
+        <v>7.8082580000000004</v>
       </c>
       <c r="M3" s="1">
-        <v>942.297000</v>
+        <v>942.29700000000003</v>
       </c>
       <c r="N3" s="1">
-        <v>-121.111000</v>
+        <v>-121.111</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
         <v>28120.234354</v>
       </c>
       <c r="Q3" s="1">
-        <v>7.811176</v>
+        <v>7.8111759999999997</v>
       </c>
       <c r="R3" s="1">
-        <v>949.020000</v>
+        <v>949.02</v>
       </c>
       <c r="S3" s="1">
-        <v>-104.315000</v>
+        <v>-104.315</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
         <v>28130.496089</v>
       </c>
       <c r="V3" s="1">
-        <v>7.814027</v>
+        <v>7.8140270000000003</v>
       </c>
       <c r="W3" s="1">
-        <v>955.529000</v>
+        <v>955.529</v>
       </c>
       <c r="X3" s="1">
-        <v>-88.842200</v>
+        <v>-88.842200000000005</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>28140.645688</v>
+        <v>28140.645688000001</v>
       </c>
       <c r="AA3" s="1">
         <v>7.816846</v>
       </c>
       <c r="AB3" s="1">
-        <v>962.560000</v>
+        <v>962.56</v>
       </c>
       <c r="AC3" s="1">
-        <v>-76.877900</v>
+        <v>-76.877899999999997</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>28150.903946</v>
+        <v>28150.903945999999</v>
       </c>
       <c r="AF3" s="1">
-        <v>7.819696</v>
+        <v>7.8196960000000004</v>
       </c>
       <c r="AG3" s="1">
-        <v>967.137000</v>
+        <v>967.13699999999994</v>
       </c>
       <c r="AH3" s="1">
-        <v>-74.574200</v>
+        <v>-74.574200000000005</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>28161.382924</v>
+        <v>28161.382924000001</v>
       </c>
       <c r="AK3" s="1">
-        <v>7.822606</v>
+        <v>7.8226060000000004</v>
       </c>
       <c r="AL3" s="1">
-        <v>974.182000</v>
+        <v>974.18200000000002</v>
       </c>
       <c r="AM3" s="1">
-        <v>-79.125500</v>
+        <v>-79.125500000000002</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
         <v>28171.663008</v>
       </c>
       <c r="AP3" s="1">
-        <v>7.825462</v>
+        <v>7.8254619999999999</v>
       </c>
       <c r="AQ3" s="1">
-        <v>982.116000</v>
+        <v>982.11599999999999</v>
       </c>
       <c r="AR3" s="1">
-        <v>-90.489800</v>
+        <v>-90.489800000000002</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>28182.606273</v>
+        <v>28182.606273000001</v>
       </c>
       <c r="AU3" s="1">
-        <v>7.828502</v>
+        <v>7.8285020000000003</v>
       </c>
       <c r="AV3" s="1">
-        <v>991.768000</v>
+        <v>991.76800000000003</v>
       </c>
       <c r="AW3" s="1">
-        <v>-107.984000</v>
+        <v>-107.98399999999999</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
         <v>28193.708691</v>
       </c>
       <c r="AZ3" s="1">
-        <v>7.831586</v>
+        <v>7.8315859999999997</v>
       </c>
       <c r="BA3" s="1">
-        <v>999.853000</v>
+        <v>999.85299999999995</v>
       </c>
       <c r="BB3" s="1">
-        <v>-123.491000</v>
+        <v>-123.491</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>28204.629107</v>
+        <v>28204.629107000001</v>
       </c>
       <c r="BE3" s="1">
         <v>7.834619</v>
       </c>
       <c r="BF3" s="1">
-        <v>1037.880000</v>
+        <v>1037.8800000000001</v>
       </c>
       <c r="BG3" s="1">
-        <v>-195.253000</v>
+        <v>-195.25299999999999</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>28215.699317</v>
+        <v>28215.699316999999</v>
       </c>
       <c r="BJ3" s="1">
-        <v>7.837694</v>
+        <v>7.8376939999999999</v>
       </c>
       <c r="BK3" s="1">
-        <v>1103.910000</v>
+        <v>1103.9100000000001</v>
       </c>
       <c r="BL3" s="1">
-        <v>-312.006000</v>
+        <v>-312.00599999999997</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
         <v>28227.123174</v>
       </c>
       <c r="BO3" s="1">
-        <v>7.840868</v>
+        <v>7.8408680000000004</v>
       </c>
       <c r="BP3" s="1">
-        <v>1211.740000</v>
+        <v>1211.74</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-495.917000</v>
+        <v>-495.91699999999997</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>28238.349623</v>
+        <v>28238.349622999998</v>
       </c>
       <c r="BT3" s="1">
-        <v>7.843986</v>
+        <v>7.8439860000000001</v>
       </c>
       <c r="BU3" s="1">
-        <v>1332.890000</v>
+        <v>1332.89</v>
       </c>
       <c r="BV3" s="1">
-        <v>-697.220000</v>
+        <v>-697.22</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
         <v>28249.340472</v>
       </c>
       <c r="BY3" s="1">
-        <v>7.847039</v>
+        <v>7.8470389999999997</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1468.690000</v>
+        <v>1468.69</v>
       </c>
       <c r="CA3" s="1">
-        <v>-912.235000</v>
+        <v>-912.23500000000001</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
         <v>28260.533194</v>
       </c>
       <c r="CD3" s="1">
-        <v>7.850148</v>
+        <v>7.8501479999999999</v>
       </c>
       <c r="CE3" s="1">
-        <v>1824.530000</v>
+        <v>1824.53</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1423.040000</v>
+        <v>-1423.04</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>28089.180300</v>
+        <v>28089.1803</v>
       </c>
       <c r="B4" s="1">
-        <v>7.802550</v>
+        <v>7.8025500000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>900.565000</v>
+        <v>900.56500000000005</v>
       </c>
       <c r="D4" s="1">
-        <v>-202.491000</v>
+        <v>-202.49100000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>28099.903806</v>
+        <v>28099.903805999998</v>
       </c>
       <c r="G4" s="1">
-        <v>7.805529</v>
+        <v>7.8055289999999999</v>
       </c>
       <c r="H4" s="1">
-        <v>918.637000</v>
+        <v>918.63699999999994</v>
       </c>
       <c r="I4" s="1">
-        <v>-170.659000</v>
+        <v>-170.65899999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
         <v>28110.066336</v>
       </c>
       <c r="L4" s="1">
-        <v>7.808352</v>
+        <v>7.8083520000000002</v>
       </c>
       <c r="M4" s="1">
-        <v>942.216000</v>
+        <v>942.21600000000001</v>
       </c>
       <c r="N4" s="1">
-        <v>-120.862000</v>
+        <v>-120.86199999999999</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
         <v>28120.582552</v>
       </c>
       <c r="Q4" s="1">
-        <v>7.811273</v>
+        <v>7.8112729999999999</v>
       </c>
       <c r="R4" s="1">
-        <v>949.041000</v>
+        <v>949.04100000000005</v>
       </c>
       <c r="S4" s="1">
-        <v>-104.293000</v>
+        <v>-104.29300000000001</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
         <v>28130.837301</v>
       </c>
       <c r="V4" s="1">
-        <v>7.814121</v>
+        <v>7.8141210000000001</v>
       </c>
       <c r="W4" s="1">
-        <v>955.552000</v>
+        <v>955.55200000000002</v>
       </c>
       <c r="X4" s="1">
-        <v>-88.875900</v>
+        <v>-88.875900000000001</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>28141.070264</v>
+        <v>28141.070264000002</v>
       </c>
       <c r="AA4" s="1">
-        <v>7.816964</v>
+        <v>7.8169639999999996</v>
       </c>
       <c r="AB4" s="1">
-        <v>962.599000</v>
+        <v>962.59900000000005</v>
       </c>
       <c r="AC4" s="1">
-        <v>-76.919100</v>
+        <v>-76.9191</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>28151.327529</v>
+        <v>28151.327528999998</v>
       </c>
       <c r="AF4" s="1">
-        <v>7.819813</v>
+        <v>7.8198129999999999</v>
       </c>
       <c r="AG4" s="1">
-        <v>967.109000</v>
+        <v>967.10900000000004</v>
       </c>
       <c r="AH4" s="1">
-        <v>-74.532500</v>
+        <v>-74.532499999999999</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>28161.724701</v>
+        <v>28161.724700999999</v>
       </c>
       <c r="AK4" s="1">
-        <v>7.822701</v>
+        <v>7.8227010000000003</v>
       </c>
       <c r="AL4" s="1">
-        <v>974.185000</v>
+        <v>974.18499999999995</v>
       </c>
       <c r="AM4" s="1">
-        <v>-79.085100</v>
+        <v>-79.085099999999997</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>28171.984414</v>
+        <v>28171.984413999999</v>
       </c>
       <c r="AP4" s="1">
-        <v>7.825551</v>
+        <v>7.8255509999999999</v>
       </c>
       <c r="AQ4" s="1">
-        <v>982.096000</v>
+        <v>982.096</v>
       </c>
       <c r="AR4" s="1">
-        <v>-90.495800</v>
+        <v>-90.495800000000003</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>28182.973280</v>
+        <v>28182.973279999998</v>
       </c>
       <c r="AU4" s="1">
-        <v>7.828604</v>
+        <v>7.8286040000000003</v>
       </c>
       <c r="AV4" s="1">
-        <v>991.775000</v>
+        <v>991.77499999999998</v>
       </c>
       <c r="AW4" s="1">
-        <v>-107.997000</v>
+        <v>-107.997</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>28194.067297</v>
+        <v>28194.067297000001</v>
       </c>
       <c r="AZ4" s="1">
-        <v>7.831685</v>
+        <v>7.8316850000000002</v>
       </c>
       <c r="BA4" s="1">
-        <v>999.875000</v>
+        <v>999.875</v>
       </c>
       <c r="BB4" s="1">
-        <v>-123.493000</v>
+        <v>-123.49299999999999</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>28205.318579</v>
+        <v>28205.318578999999</v>
       </c>
       <c r="BE4" s="1">
-        <v>7.834811</v>
+        <v>7.8348110000000002</v>
       </c>
       <c r="BF4" s="1">
-        <v>1037.890000</v>
+        <v>1037.8900000000001</v>
       </c>
       <c r="BG4" s="1">
-        <v>-195.256000</v>
+        <v>-195.256</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>28216.449776</v>
+        <v>28216.449776000001</v>
       </c>
       <c r="BJ4" s="1">
-        <v>7.837903</v>
+        <v>7.8379029999999998</v>
       </c>
       <c r="BK4" s="1">
-        <v>1103.910000</v>
+        <v>1103.9100000000001</v>
       </c>
       <c r="BL4" s="1">
-        <v>-312.019000</v>
+        <v>-312.01900000000001</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>28227.544277</v>
+        <v>28227.544277000001</v>
       </c>
       <c r="BO4" s="1">
-        <v>7.840985</v>
+        <v>7.8409849999999999</v>
       </c>
       <c r="BP4" s="1">
-        <v>1211.750000</v>
+        <v>1211.75</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-495.920000</v>
+        <v>-495.92</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>28238.763783</v>
+        <v>28238.763782999999</v>
       </c>
       <c r="BT4" s="1">
-        <v>7.844101</v>
+        <v>7.8441010000000002</v>
       </c>
       <c r="BU4" s="1">
-        <v>1332.890000</v>
+        <v>1332.89</v>
       </c>
       <c r="BV4" s="1">
-        <v>-697.298000</v>
+        <v>-697.298</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>28249.787896</v>
+        <v>28249.787896000002</v>
       </c>
       <c r="BY4" s="1">
-        <v>7.847163</v>
+        <v>7.8471630000000001</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1468.790000</v>
+        <v>1468.79</v>
       </c>
       <c r="CA4" s="1">
-        <v>-912.133000</v>
+        <v>-912.13300000000004</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
         <v>28261.362008</v>
       </c>
       <c r="CD4" s="1">
-        <v>7.850378</v>
+        <v>7.8503780000000001</v>
       </c>
       <c r="CE4" s="1">
-        <v>1825.290000</v>
+        <v>1825.29</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1422.070000</v>
+        <v>-1422.07</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>28089.543868</v>
+        <v>28089.543868000001</v>
       </c>
       <c r="B5" s="1">
         <v>7.802651</v>
       </c>
       <c r="C5" s="1">
-        <v>900.522000</v>
+        <v>900.52200000000005</v>
       </c>
       <c r="D5" s="1">
-        <v>-202.303000</v>
+        <v>-202.303</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>28100.247543</v>
+        <v>28100.247543000001</v>
       </c>
       <c r="G5" s="1">
-        <v>7.805624</v>
+        <v>7.8056239999999999</v>
       </c>
       <c r="H5" s="1">
-        <v>919.024000</v>
+        <v>919.024</v>
       </c>
       <c r="I5" s="1">
-        <v>-171.249000</v>
+        <v>-171.249</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>28110.410560</v>
+        <v>28110.41056</v>
       </c>
       <c r="L5" s="1">
-        <v>7.808447</v>
+        <v>7.8084470000000001</v>
       </c>
       <c r="M5" s="1">
-        <v>942.165000</v>
+        <v>942.16499999999996</v>
       </c>
       <c r="N5" s="1">
-        <v>-120.861000</v>
+        <v>-120.861</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>28120.928723</v>
+        <v>28120.928723000001</v>
       </c>
       <c r="Q5" s="1">
         <v>7.811369</v>
       </c>
       <c r="R5" s="1">
-        <v>948.996000</v>
+        <v>948.99599999999998</v>
       </c>
       <c r="S5" s="1">
-        <v>-104.310000</v>
+        <v>-104.31</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>28131.273780</v>
+        <v>28131.27378</v>
       </c>
       <c r="V5" s="1">
-        <v>7.814243</v>
+        <v>7.8142430000000003</v>
       </c>
       <c r="W5" s="1">
-        <v>955.561000</v>
+        <v>955.56100000000004</v>
       </c>
       <c r="X5" s="1">
-        <v>-88.865800</v>
+        <v>-88.865799999999993</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>28141.364428</v>
+        <v>28141.364428000001</v>
       </c>
       <c r="AA5" s="1">
-        <v>7.817046</v>
+        <v>7.8170460000000004</v>
       </c>
       <c r="AB5" s="1">
-        <v>962.567000</v>
+        <v>962.56700000000001</v>
       </c>
       <c r="AC5" s="1">
-        <v>-76.958600</v>
+        <v>-76.958600000000004</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>28151.590410</v>
+        <v>28151.590410000001</v>
       </c>
       <c r="AF5" s="1">
-        <v>7.819886</v>
+        <v>7.8198860000000003</v>
       </c>
       <c r="AG5" s="1">
-        <v>967.115000</v>
+        <v>967.11500000000001</v>
       </c>
       <c r="AH5" s="1">
-        <v>-74.595300</v>
+        <v>-74.595299999999995</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
         <v>28162.075341</v>
       </c>
       <c r="AK5" s="1">
-        <v>7.822799</v>
+        <v>7.8227989999999998</v>
       </c>
       <c r="AL5" s="1">
-        <v>974.180000</v>
+        <v>974.18</v>
       </c>
       <c r="AM5" s="1">
-        <v>-79.120600</v>
+        <v>-79.120599999999996</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
         <v>28172.356431</v>
       </c>
       <c r="AP5" s="1">
-        <v>7.825655</v>
+        <v>7.8256550000000002</v>
       </c>
       <c r="AQ5" s="1">
-        <v>982.103000</v>
+        <v>982.10299999999995</v>
       </c>
       <c r="AR5" s="1">
-        <v>-90.489400</v>
+        <v>-90.489400000000003</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>28183.333871</v>
+        <v>28183.333870999999</v>
       </c>
       <c r="AU5" s="1">
-        <v>7.828704</v>
+        <v>7.8287040000000001</v>
       </c>
       <c r="AV5" s="1">
-        <v>991.797000</v>
+        <v>991.79700000000003</v>
       </c>
       <c r="AW5" s="1">
-        <v>-107.968000</v>
+        <v>-107.968</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
         <v>28194.783024</v>
       </c>
       <c r="AZ5" s="1">
-        <v>7.831884</v>
+        <v>7.8318839999999996</v>
       </c>
       <c r="BA5" s="1">
-        <v>999.896000</v>
+        <v>999.89599999999996</v>
       </c>
       <c r="BB5" s="1">
-        <v>-123.500000</v>
+        <v>-123.5</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>28205.732238</v>
+        <v>28205.732238000001</v>
       </c>
       <c r="BE5" s="1">
-        <v>7.834926</v>
+        <v>7.8349260000000003</v>
       </c>
       <c r="BF5" s="1">
-        <v>1037.890000</v>
+        <v>1037.8900000000001</v>
       </c>
       <c r="BG5" s="1">
-        <v>-195.264000</v>
+        <v>-195.26400000000001</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>28216.826724</v>
+        <v>28216.826723999999</v>
       </c>
       <c r="BJ5" s="1">
-        <v>7.838007</v>
+        <v>7.8380070000000002</v>
       </c>
       <c r="BK5" s="1">
-        <v>1103.910000</v>
+        <v>1103.9100000000001</v>
       </c>
       <c r="BL5" s="1">
-        <v>-312.013000</v>
+        <v>-312.01299999999998</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>28227.942565</v>
+        <v>28227.942565000001</v>
       </c>
       <c r="BO5" s="1">
-        <v>7.841095</v>
+        <v>7.8410950000000001</v>
       </c>
       <c r="BP5" s="1">
-        <v>1211.730000</v>
+        <v>1211.73</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-495.943000</v>
+        <v>-495.94299999999998</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>28239.483973</v>
+        <v>28239.483972999999</v>
       </c>
       <c r="BT5" s="1">
-        <v>7.844301</v>
+        <v>7.8443009999999997</v>
       </c>
       <c r="BU5" s="1">
-        <v>1332.930000</v>
+        <v>1332.93</v>
       </c>
       <c r="BV5" s="1">
-        <v>-697.238000</v>
+        <v>-697.23800000000006</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
         <v>28250.531863</v>
       </c>
       <c r="BY5" s="1">
-        <v>7.847370</v>
+        <v>7.8473699999999997</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1468.770000</v>
+        <v>1468.77</v>
       </c>
       <c r="CA5" s="1">
-        <v>-912.303000</v>
+        <v>-912.303</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>28261.601080</v>
+        <v>28261.60108</v>
       </c>
       <c r="CD5" s="1">
-        <v>7.850445</v>
+        <v>7.8504449999999997</v>
       </c>
       <c r="CE5" s="1">
-        <v>1823.850000</v>
+        <v>1823.85</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1422.000000</v>
+        <v>-1422</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
         <v>28089.887595</v>
       </c>
       <c r="B6" s="1">
-        <v>7.802747</v>
+        <v>7.8027470000000001</v>
       </c>
       <c r="C6" s="1">
-        <v>900.819000</v>
+        <v>900.81899999999996</v>
       </c>
       <c r="D6" s="1">
-        <v>-202.328000</v>
+        <v>-202.328</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>28100.595998</v>
+        <v>28100.595998000001</v>
       </c>
       <c r="G6" s="1">
-        <v>7.805721</v>
+        <v>7.8057210000000001</v>
       </c>
       <c r="H6" s="1">
-        <v>918.863000</v>
+        <v>918.86300000000006</v>
       </c>
       <c r="I6" s="1">
-        <v>-170.651000</v>
+        <v>-170.65100000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>28110.836127</v>
+        <v>28110.836126999999</v>
       </c>
       <c r="L6" s="1">
-        <v>7.808566</v>
+        <v>7.8085659999999999</v>
       </c>
       <c r="M6" s="1">
-        <v>942.280000</v>
+        <v>942.28</v>
       </c>
       <c r="N6" s="1">
-        <v>-120.874000</v>
+        <v>-120.874</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>28121.350355</v>
+        <v>28121.350354999999</v>
       </c>
       <c r="Q6" s="1">
-        <v>7.811486</v>
+        <v>7.8114860000000004</v>
       </c>
       <c r="R6" s="1">
-        <v>949.040000</v>
+        <v>949.04</v>
       </c>
       <c r="S6" s="1">
-        <v>-104.248000</v>
+        <v>-104.248</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
         <v>28131.551572</v>
       </c>
       <c r="V6" s="1">
-        <v>7.814320</v>
+        <v>7.8143200000000004</v>
       </c>
       <c r="W6" s="1">
-        <v>955.633000</v>
+        <v>955.63300000000004</v>
       </c>
       <c r="X6" s="1">
-        <v>-88.858500</v>
+        <v>-88.858500000000006</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>28141.715560</v>
+        <v>28141.715560000001</v>
       </c>
       <c r="AA6" s="1">
-        <v>7.817143</v>
+        <v>7.8171429999999997</v>
       </c>
       <c r="AB6" s="1">
-        <v>962.554000</v>
+        <v>962.55399999999997</v>
       </c>
       <c r="AC6" s="1">
-        <v>-76.954200</v>
+        <v>-76.9542</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>28151.931657</v>
+        <v>28151.931657000001</v>
       </c>
       <c r="AF6" s="1">
-        <v>7.819981</v>
+        <v>7.8199810000000003</v>
       </c>
       <c r="AG6" s="1">
-        <v>967.133000</v>
+        <v>967.13300000000004</v>
       </c>
       <c r="AH6" s="1">
-        <v>-74.600500</v>
+        <v>-74.600499999999997</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>28162.422540</v>
+        <v>28162.42254</v>
       </c>
       <c r="AK6" s="1">
-        <v>7.822895</v>
+        <v>7.8228949999999999</v>
       </c>
       <c r="AL6" s="1">
-        <v>974.186000</v>
+        <v>974.18600000000004</v>
       </c>
       <c r="AM6" s="1">
-        <v>-79.078400</v>
+        <v>-79.078400000000002</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
         <v>28173.077597</v>
       </c>
       <c r="AP6" s="1">
-        <v>7.825855</v>
+        <v>7.8258549999999998</v>
       </c>
       <c r="AQ6" s="1">
-        <v>982.108000</v>
+        <v>982.10799999999995</v>
       </c>
       <c r="AR6" s="1">
-        <v>-90.499500</v>
+        <v>-90.499499999999998</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>28184.064975</v>
+        <v>28184.064975000001</v>
       </c>
       <c r="AU6" s="1">
-        <v>7.828907</v>
+        <v>7.8289070000000001</v>
       </c>
       <c r="AV6" s="1">
-        <v>991.768000</v>
+        <v>991.76800000000003</v>
       </c>
       <c r="AW6" s="1">
-        <v>-107.976000</v>
+        <v>-107.976</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>28195.143616</v>
+        <v>28195.143616000001</v>
       </c>
       <c r="AZ6" s="1">
-        <v>7.831984</v>
+        <v>7.8319840000000003</v>
       </c>
       <c r="BA6" s="1">
-        <v>999.885000</v>
+        <v>999.88499999999999</v>
       </c>
       <c r="BB6" s="1">
-        <v>-123.509000</v>
+        <v>-123.509</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
         <v>28206.116113</v>
@@ -1674,58 +2090,58 @@
         <v>7.835032</v>
       </c>
       <c r="BF6" s="1">
-        <v>1037.900000</v>
+        <v>1037.9000000000001</v>
       </c>
       <c r="BG6" s="1">
-        <v>-195.270000</v>
+        <v>-195.27</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>28217.202195</v>
+        <v>28217.202195000002</v>
       </c>
       <c r="BJ6" s="1">
-        <v>7.838112</v>
+        <v>7.8381119999999997</v>
       </c>
       <c r="BK6" s="1">
-        <v>1103.910000</v>
+        <v>1103.9100000000001</v>
       </c>
       <c r="BL6" s="1">
-        <v>-312.045000</v>
+        <v>-312.04500000000002</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
         <v>28228.661268</v>
       </c>
       <c r="BO6" s="1">
-        <v>7.841295</v>
+        <v>7.8412949999999997</v>
       </c>
       <c r="BP6" s="1">
-        <v>1211.710000</v>
+        <v>1211.71</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-495.944000</v>
+        <v>-495.94400000000002</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>28239.597557</v>
+        <v>28239.597557000001</v>
       </c>
       <c r="BT6" s="1">
-        <v>7.844333</v>
+        <v>7.8443329999999998</v>
       </c>
       <c r="BU6" s="1">
-        <v>1332.880000</v>
+        <v>1332.88</v>
       </c>
       <c r="BV6" s="1">
-        <v>-697.276000</v>
+        <v>-697.27599999999995</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
         <v>28250.652886</v>
@@ -1734,2191 +2150,2191 @@
         <v>7.847404</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1468.690000</v>
+        <v>1468.69</v>
       </c>
       <c r="CA6" s="1">
-        <v>-912.221000</v>
+        <v>-912.221</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>28262.138247</v>
+        <v>28262.138246999999</v>
       </c>
       <c r="CD6" s="1">
-        <v>7.850594</v>
+        <v>7.8505940000000001</v>
       </c>
       <c r="CE6" s="1">
-        <v>1824.880000</v>
+        <v>1824.88</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1423.260000</v>
+        <v>-1423.26</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>28090.484282</v>
+        <v>28090.484282000001</v>
       </c>
       <c r="B7" s="1">
-        <v>7.802912</v>
+        <v>7.8029120000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>900.668000</v>
+        <v>900.66800000000001</v>
       </c>
       <c r="D7" s="1">
-        <v>-202.143000</v>
+        <v>-202.143</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>28101.022780</v>
+        <v>28101.022779999999</v>
       </c>
       <c r="G7" s="1">
-        <v>7.805840</v>
+        <v>7.8058399999999999</v>
       </c>
       <c r="H7" s="1">
-        <v>918.801000</v>
+        <v>918.80100000000004</v>
       </c>
       <c r="I7" s="1">
-        <v>-171.051000</v>
+        <v>-171.05099999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>28111.118351</v>
+        <v>28111.118351000001</v>
       </c>
       <c r="L7" s="1">
-        <v>7.808644</v>
+        <v>7.8086440000000001</v>
       </c>
       <c r="M7" s="1">
-        <v>942.017000</v>
+        <v>942.01700000000005</v>
       </c>
       <c r="N7" s="1">
-        <v>-121.043000</v>
+        <v>-121.04300000000001</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>28121.629569</v>
+        <v>28121.629569000001</v>
       </c>
       <c r="Q7" s="1">
-        <v>7.811564</v>
+        <v>7.8115639999999997</v>
       </c>
       <c r="R7" s="1">
-        <v>949.040000</v>
+        <v>949.04</v>
       </c>
       <c r="S7" s="1">
-        <v>-104.254000</v>
+        <v>-104.254</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
         <v>28131.898739</v>
       </c>
       <c r="V7" s="1">
-        <v>7.814416</v>
+        <v>7.8144159999999996</v>
       </c>
       <c r="W7" s="1">
-        <v>955.657000</v>
+        <v>955.65700000000004</v>
       </c>
       <c r="X7" s="1">
-        <v>-88.809600</v>
+        <v>-88.809600000000003</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>28142.063751</v>
+        <v>28142.063751000002</v>
       </c>
       <c r="AA7" s="1">
-        <v>7.817240</v>
+        <v>7.81724</v>
       </c>
       <c r="AB7" s="1">
-        <v>962.543000</v>
+        <v>962.54300000000001</v>
       </c>
       <c r="AC7" s="1">
-        <v>-76.846800</v>
+        <v>-76.846800000000002</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>28152.275912</v>
+        <v>28152.275912000001</v>
       </c>
       <c r="AF7" s="1">
-        <v>7.820077</v>
+        <v>7.8200770000000004</v>
       </c>
       <c r="AG7" s="1">
-        <v>967.110000</v>
+        <v>967.11</v>
       </c>
       <c r="AH7" s="1">
-        <v>-74.583500</v>
+        <v>-74.583500000000001</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>28163.121402</v>
+        <v>28163.121402000001</v>
       </c>
       <c r="AK7" s="1">
-        <v>7.823089</v>
+        <v>7.8230890000000004</v>
       </c>
       <c r="AL7" s="1">
-        <v>974.185000</v>
+        <v>974.18499999999995</v>
       </c>
       <c r="AM7" s="1">
-        <v>-79.084100</v>
+        <v>-79.084100000000007</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>28173.434252</v>
+        <v>28173.434251999999</v>
       </c>
       <c r="AP7" s="1">
-        <v>7.825954</v>
+        <v>7.8259540000000003</v>
       </c>
       <c r="AQ7" s="1">
-        <v>982.129000</v>
+        <v>982.12900000000002</v>
       </c>
       <c r="AR7" s="1">
-        <v>-90.498000</v>
+        <v>-90.498000000000005</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>28184.457806</v>
+        <v>28184.457805999999</v>
       </c>
       <c r="AU7" s="1">
-        <v>7.829016</v>
+        <v>7.8290160000000002</v>
       </c>
       <c r="AV7" s="1">
-        <v>991.811000</v>
+        <v>991.81100000000004</v>
       </c>
       <c r="AW7" s="1">
-        <v>-107.967000</v>
+        <v>-107.967</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>28195.502753</v>
+        <v>28195.502753000001</v>
       </c>
       <c r="AZ7" s="1">
         <v>7.832084</v>
       </c>
       <c r="BA7" s="1">
-        <v>999.879000</v>
+        <v>999.87900000000002</v>
       </c>
       <c r="BB7" s="1">
-        <v>-123.507000</v>
+        <v>-123.50700000000001</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
         <v>28206.788193</v>
       </c>
       <c r="BE7" s="1">
-        <v>7.835219</v>
+        <v>7.8352190000000004</v>
       </c>
       <c r="BF7" s="1">
-        <v>1037.900000</v>
+        <v>1037.9000000000001</v>
       </c>
       <c r="BG7" s="1">
-        <v>-195.258000</v>
+        <v>-195.25800000000001</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
         <v>28217.888659</v>
       </c>
       <c r="BJ7" s="1">
-        <v>7.838302</v>
+        <v>7.8383019999999997</v>
       </c>
       <c r="BK7" s="1">
-        <v>1103.920000</v>
+        <v>1103.92</v>
       </c>
       <c r="BL7" s="1">
-        <v>-312.039000</v>
+        <v>-312.03899999999999</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>28228.787780</v>
+        <v>28228.787779999999</v>
       </c>
       <c r="BO7" s="1">
-        <v>7.841330</v>
+        <v>7.8413300000000001</v>
       </c>
       <c r="BP7" s="1">
-        <v>1211.710000</v>
+        <v>1211.71</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-495.968000</v>
+        <v>-495.96800000000002</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>28240.033541</v>
+        <v>28240.033541000001</v>
       </c>
       <c r="BT7" s="1">
-        <v>7.844454</v>
+        <v>7.8444539999999998</v>
       </c>
       <c r="BU7" s="1">
-        <v>1332.910000</v>
+        <v>1332.91</v>
       </c>
       <c r="BV7" s="1">
-        <v>-697.276000</v>
+        <v>-697.27599999999995</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>28251.081430</v>
+        <v>28251.081429999998</v>
       </c>
       <c r="BY7" s="1">
-        <v>7.847523</v>
+        <v>7.8475229999999998</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1468.790000</v>
+        <v>1468.79</v>
       </c>
       <c r="CA7" s="1">
-        <v>-912.170000</v>
+        <v>-912.17</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>28262.677895</v>
+        <v>28262.677895000001</v>
       </c>
       <c r="CD7" s="1">
-        <v>7.850744</v>
+        <v>7.8507439999999997</v>
       </c>
       <c r="CE7" s="1">
-        <v>1824.950000</v>
+        <v>1824.95</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1421.360000</v>
+        <v>-1421.36</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>28090.914316</v>
+        <v>28090.914315999999</v>
       </c>
       <c r="B8" s="1">
         <v>7.803032</v>
       </c>
       <c r="C8" s="1">
-        <v>900.651000</v>
+        <v>900.65099999999995</v>
       </c>
       <c r="D8" s="1">
-        <v>-202.267000</v>
+        <v>-202.267</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>28101.303020</v>
+        <v>28101.303019999999</v>
       </c>
       <c r="G8" s="1">
-        <v>7.805918</v>
+        <v>7.8059180000000001</v>
       </c>
       <c r="H8" s="1">
-        <v>918.626000</v>
+        <v>918.62599999999998</v>
       </c>
       <c r="I8" s="1">
-        <v>-170.936000</v>
+        <v>-170.93600000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
         <v>28111.465086</v>
       </c>
       <c r="L8" s="1">
-        <v>7.808740</v>
+        <v>7.8087400000000002</v>
       </c>
       <c r="M8" s="1">
-        <v>942.109000</v>
+        <v>942.10900000000004</v>
       </c>
       <c r="N8" s="1">
-        <v>-121.075000</v>
+        <v>-121.075</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>28121.980240</v>
+        <v>28121.980240000001</v>
       </c>
       <c r="Q8" s="1">
         <v>7.811661</v>
       </c>
       <c r="R8" s="1">
-        <v>948.979000</v>
+        <v>948.97900000000004</v>
       </c>
       <c r="S8" s="1">
-        <v>-104.266000</v>
+        <v>-104.26600000000001</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>28132.240484</v>
+        <v>28132.240484000002</v>
       </c>
       <c r="V8" s="1">
-        <v>7.814511</v>
+        <v>7.8145110000000004</v>
       </c>
       <c r="W8" s="1">
-        <v>955.622000</v>
+        <v>955.62199999999996</v>
       </c>
       <c r="X8" s="1">
-        <v>-88.908100</v>
+        <v>-88.908100000000005</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
         <v>28142.756662</v>
       </c>
       <c r="AA8" s="1">
-        <v>7.817432</v>
+        <v>7.8174320000000002</v>
       </c>
       <c r="AB8" s="1">
-        <v>962.579000</v>
+        <v>962.57899999999995</v>
       </c>
       <c r="AC8" s="1">
-        <v>-76.860800</v>
+        <v>-76.860799999999998</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>28152.964824</v>
+        <v>28152.964823999999</v>
       </c>
       <c r="AF8" s="1">
-        <v>7.820268</v>
+        <v>7.8202680000000004</v>
       </c>
       <c r="AG8" s="1">
-        <v>967.161000</v>
+        <v>967.16099999999994</v>
       </c>
       <c r="AH8" s="1">
-        <v>-74.605000</v>
+        <v>-74.605000000000004</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>28163.465626</v>
+        <v>28163.465626000001</v>
       </c>
       <c r="AK8" s="1">
-        <v>7.823185</v>
+        <v>7.8231849999999996</v>
       </c>
       <c r="AL8" s="1">
-        <v>974.172000</v>
+        <v>974.17200000000003</v>
       </c>
       <c r="AM8" s="1">
-        <v>-79.105000</v>
+        <v>-79.105000000000004</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
         <v>28173.785388</v>
       </c>
       <c r="AP8" s="1">
-        <v>7.826051</v>
+        <v>7.8260509999999996</v>
       </c>
       <c r="AQ8" s="1">
-        <v>982.130000</v>
+        <v>982.13</v>
       </c>
       <c r="AR8" s="1">
-        <v>-90.520300</v>
+        <v>-90.520300000000006</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>28184.821869</v>
+        <v>28184.821868999999</v>
       </c>
       <c r="AU8" s="1">
-        <v>7.829117</v>
+        <v>7.8291170000000001</v>
       </c>
       <c r="AV8" s="1">
-        <v>991.782000</v>
+        <v>991.78200000000004</v>
       </c>
       <c r="AW8" s="1">
-        <v>-107.970000</v>
+        <v>-107.97</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>28196.172846</v>
+        <v>28196.172846000001</v>
       </c>
       <c r="AZ8" s="1">
-        <v>7.832270</v>
+        <v>7.8322700000000003</v>
       </c>
       <c r="BA8" s="1">
-        <v>999.882000</v>
+        <v>999.88199999999995</v>
       </c>
       <c r="BB8" s="1">
-        <v>-123.519000</v>
+        <v>-123.51900000000001</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
         <v>28207.195904</v>
       </c>
       <c r="BE8" s="1">
-        <v>7.835332</v>
+        <v>7.8353320000000002</v>
       </c>
       <c r="BF8" s="1">
-        <v>1037.880000</v>
+        <v>1037.8800000000001</v>
       </c>
       <c r="BG8" s="1">
-        <v>-195.265000</v>
+        <v>-195.26499999999999</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>28218.326625</v>
+        <v>28218.326625000002</v>
       </c>
       <c r="BJ8" s="1">
-        <v>7.838424</v>
+        <v>7.8384239999999998</v>
       </c>
       <c r="BK8" s="1">
-        <v>1103.930000</v>
+        <v>1103.93</v>
       </c>
       <c r="BL8" s="1">
-        <v>-312.008000</v>
+        <v>-312.00799999999998</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>28229.183059</v>
+        <v>28229.183058999999</v>
       </c>
       <c r="BO8" s="1">
-        <v>7.841440</v>
+        <v>7.8414400000000004</v>
       </c>
       <c r="BP8" s="1">
-        <v>1211.700000</v>
+        <v>1211.7</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-495.913000</v>
+        <v>-495.91300000000001</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>28240.458116</v>
+        <v>28240.458116000002</v>
       </c>
       <c r="BT8" s="1">
-        <v>7.844572</v>
+        <v>7.8445720000000003</v>
       </c>
       <c r="BU8" s="1">
-        <v>1332.980000</v>
+        <v>1332.98</v>
       </c>
       <c r="BV8" s="1">
-        <v>-697.241000</v>
+        <v>-697.24099999999999</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
         <v>28251.512981</v>
       </c>
       <c r="BY8" s="1">
-        <v>7.847642</v>
+        <v>7.8476419999999996</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1468.820000</v>
+        <v>1468.82</v>
       </c>
       <c r="CA8" s="1">
-        <v>-912.269000</v>
+        <v>-912.26900000000001</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>28263.219031</v>
+        <v>28263.219031000001</v>
       </c>
       <c r="CD8" s="1">
-        <v>7.850894</v>
+        <v>7.8508940000000003</v>
       </c>
       <c r="CE8" s="1">
-        <v>1823.880000</v>
+        <v>1823.88</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1423.110000</v>
+        <v>-1423.11</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>28091.261017</v>
+        <v>28091.261017000001</v>
       </c>
       <c r="B9" s="1">
-        <v>7.803128</v>
+        <v>7.8031280000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>900.835000</v>
+        <v>900.83500000000004</v>
       </c>
       <c r="D9" s="1">
-        <v>-202.362000</v>
+        <v>-202.36199999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>28101.648733</v>
+        <v>28101.648733000002</v>
       </c>
       <c r="G9" s="1">
-        <v>7.806014</v>
+        <v>7.8060140000000002</v>
       </c>
       <c r="H9" s="1">
-        <v>918.617000</v>
+        <v>918.61699999999996</v>
       </c>
       <c r="I9" s="1">
-        <v>-171.037000</v>
+        <v>-171.03700000000001</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>28111.811760</v>
+        <v>28111.811760000001</v>
       </c>
       <c r="L9" s="1">
-        <v>7.808837</v>
+        <v>7.8088369999999996</v>
       </c>
       <c r="M9" s="1">
-        <v>942.175000</v>
+        <v>942.17499999999995</v>
       </c>
       <c r="N9" s="1">
-        <v>-120.953000</v>
+        <v>-120.953</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>28122.330418</v>
+        <v>28122.330418000001</v>
       </c>
       <c r="Q9" s="1">
-        <v>7.811758</v>
+        <v>7.8117580000000002</v>
       </c>
       <c r="R9" s="1">
-        <v>948.943000</v>
+        <v>948.94299999999998</v>
       </c>
       <c r="S9" s="1">
-        <v>-104.318000</v>
+        <v>-104.318</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>28132.926545</v>
+        <v>28132.926544999998</v>
       </c>
       <c r="V9" s="1">
-        <v>7.814702</v>
+        <v>7.8147019999999996</v>
       </c>
       <c r="W9" s="1">
-        <v>955.656000</v>
+        <v>955.65599999999995</v>
       </c>
       <c r="X9" s="1">
-        <v>-88.813000</v>
+        <v>-88.813000000000002</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>28143.106869</v>
+        <v>28143.106868999999</v>
       </c>
       <c r="AA9" s="1">
-        <v>7.817530</v>
+        <v>7.8175299999999996</v>
       </c>
       <c r="AB9" s="1">
-        <v>962.640000</v>
+        <v>962.64</v>
       </c>
       <c r="AC9" s="1">
-        <v>-76.916100</v>
+        <v>-76.9161</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>28153.306072</v>
+        <v>28153.306071999999</v>
       </c>
       <c r="AF9" s="1">
-        <v>7.820363</v>
+        <v>7.8203630000000004</v>
       </c>
       <c r="AG9" s="1">
-        <v>967.115000</v>
+        <v>967.11500000000001</v>
       </c>
       <c r="AH9" s="1">
-        <v>-74.583400</v>
+        <v>-74.583399999999997</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
         <v>28163.821289</v>
       </c>
       <c r="AK9" s="1">
-        <v>7.823284</v>
+        <v>7.8232840000000001</v>
       </c>
       <c r="AL9" s="1">
-        <v>974.179000</v>
+        <v>974.17899999999997</v>
       </c>
       <c r="AM9" s="1">
-        <v>-79.137900</v>
+        <v>-79.137900000000002</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>28174.471854</v>
+        <v>28174.471853999999</v>
       </c>
       <c r="AP9" s="1">
-        <v>7.826242</v>
+        <v>7.8262419999999997</v>
       </c>
       <c r="AQ9" s="1">
-        <v>982.141000</v>
+        <v>982.14099999999996</v>
       </c>
       <c r="AR9" s="1">
-        <v>-90.529200</v>
+        <v>-90.529200000000003</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
         <v>28185.492498</v>
       </c>
       <c r="AU9" s="1">
-        <v>7.829303</v>
+        <v>7.8293030000000003</v>
       </c>
       <c r="AV9" s="1">
-        <v>991.789000</v>
+        <v>991.78899999999999</v>
       </c>
       <c r="AW9" s="1">
-        <v>-107.982000</v>
+        <v>-107.982</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>28196.606318</v>
+        <v>28196.606317999998</v>
       </c>
       <c r="AZ9" s="1">
-        <v>7.832391</v>
+        <v>7.8323910000000003</v>
       </c>
       <c r="BA9" s="1">
-        <v>999.870000</v>
+        <v>999.87</v>
       </c>
       <c r="BB9" s="1">
-        <v>-123.537000</v>
+        <v>-123.53700000000001</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
         <v>28207.587259</v>
       </c>
       <c r="BE9" s="1">
-        <v>7.835441</v>
+        <v>7.8354410000000003</v>
       </c>
       <c r="BF9" s="1">
-        <v>1037.900000</v>
+        <v>1037.9000000000001</v>
       </c>
       <c r="BG9" s="1">
-        <v>-195.256000</v>
+        <v>-195.256</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>28218.702096</v>
+        <v>28218.702096000001</v>
       </c>
       <c r="BJ9" s="1">
-        <v>7.838528</v>
+        <v>7.8385280000000002</v>
       </c>
       <c r="BK9" s="1">
-        <v>1103.940000</v>
+        <v>1103.94</v>
       </c>
       <c r="BL9" s="1">
-        <v>-312.027000</v>
+        <v>-312.02699999999999</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>28229.606146</v>
+        <v>28229.606145999998</v>
       </c>
       <c r="BO9" s="1">
-        <v>7.841557</v>
+        <v>7.8415569999999999</v>
       </c>
       <c r="BP9" s="1">
-        <v>1211.700000</v>
+        <v>1211.7</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-495.929000</v>
+        <v>-495.92899999999997</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>28240.875747</v>
+        <v>28240.875746999998</v>
       </c>
       <c r="BT9" s="1">
-        <v>7.844688</v>
+        <v>7.8446879999999997</v>
       </c>
       <c r="BU9" s="1">
-        <v>1332.910000</v>
+        <v>1332.91</v>
       </c>
       <c r="BV9" s="1">
-        <v>-697.205000</v>
+        <v>-697.20500000000004</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>28251.938517</v>
+        <v>28251.938516999999</v>
       </c>
       <c r="BY9" s="1">
-        <v>7.847761</v>
+        <v>7.8477610000000002</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1468.890000</v>
+        <v>1468.89</v>
       </c>
       <c r="CA9" s="1">
-        <v>-912.278000</v>
+        <v>-912.27800000000002</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>28263.755206</v>
+        <v>28263.755206000002</v>
       </c>
       <c r="CD9" s="1">
-        <v>7.851043</v>
+        <v>7.8510429999999998</v>
       </c>
       <c r="CE9" s="1">
-        <v>1825.550000</v>
+        <v>1825.55</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1422.650000</v>
+        <v>-1422.65</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
         <v>28091.600778</v>
       </c>
       <c r="B10" s="1">
-        <v>7.803222</v>
+        <v>7.8032219999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>900.799000</v>
+        <v>900.79899999999998</v>
       </c>
       <c r="D10" s="1">
-        <v>-202.310000</v>
+        <v>-202.31</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
         <v>28101.991467</v>
       </c>
       <c r="G10" s="1">
-        <v>7.806109</v>
+        <v>7.8061090000000002</v>
       </c>
       <c r="H10" s="1">
-        <v>918.948000</v>
+        <v>918.94799999999998</v>
       </c>
       <c r="I10" s="1">
-        <v>-171.015000</v>
+        <v>-171.01499999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
         <v>28112.506157</v>
       </c>
       <c r="L10" s="1">
-        <v>7.809029</v>
+        <v>7.8090289999999998</v>
       </c>
       <c r="M10" s="1">
-        <v>942.180000</v>
+        <v>942.18</v>
       </c>
       <c r="N10" s="1">
-        <v>-121.121000</v>
+        <v>-121.121</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>28123.059068</v>
+        <v>28123.059067999999</v>
       </c>
       <c r="Q10" s="1">
-        <v>7.811961</v>
+        <v>7.8119610000000002</v>
       </c>
       <c r="R10" s="1">
-        <v>948.936000</v>
+        <v>948.93600000000004</v>
       </c>
       <c r="S10" s="1">
-        <v>-104.329000</v>
+        <v>-104.32899999999999</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>28133.267729</v>
+        <v>28133.267728999999</v>
       </c>
       <c r="V10" s="1">
-        <v>7.814797</v>
+        <v>7.8147970000000004</v>
       </c>
       <c r="W10" s="1">
-        <v>955.659000</v>
+        <v>955.65899999999999</v>
       </c>
       <c r="X10" s="1">
-        <v>-88.875600</v>
+        <v>-88.875600000000006</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
         <v>28143.458004</v>
       </c>
       <c r="AA10" s="1">
-        <v>7.817627</v>
+        <v>7.8176269999999999</v>
       </c>
       <c r="AB10" s="1">
-        <v>962.736000</v>
+        <v>962.73599999999999</v>
       </c>
       <c r="AC10" s="1">
-        <v>-77.018000</v>
+        <v>-77.018000000000001</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
         <v>28153.654263</v>
       </c>
       <c r="AF10" s="1">
-        <v>7.820460</v>
+        <v>7.8204599999999997</v>
       </c>
       <c r="AG10" s="1">
-        <v>967.092000</v>
+        <v>967.09199999999998</v>
       </c>
       <c r="AH10" s="1">
-        <v>-74.591700</v>
+        <v>-74.591700000000003</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>28164.473742</v>
+        <v>28164.473741999998</v>
       </c>
       <c r="AK10" s="1">
-        <v>7.823465</v>
+        <v>7.8234649999999997</v>
       </c>
       <c r="AL10" s="1">
-        <v>974.197000</v>
+        <v>974.197</v>
       </c>
       <c r="AM10" s="1">
-        <v>-79.086600</v>
+        <v>-79.086600000000004</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
         <v>28174.896922</v>
       </c>
       <c r="AP10" s="1">
-        <v>7.826360</v>
+        <v>7.8263600000000002</v>
       </c>
       <c r="AQ10" s="1">
-        <v>982.110000</v>
+        <v>982.11</v>
       </c>
       <c r="AR10" s="1">
-        <v>-90.462500</v>
+        <v>-90.462500000000006</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>28185.913600</v>
+        <v>28185.9136</v>
       </c>
       <c r="AU10" s="1">
-        <v>7.829420</v>
+        <v>7.8294199999999998</v>
       </c>
       <c r="AV10" s="1">
-        <v>991.766000</v>
+        <v>991.76599999999996</v>
       </c>
       <c r="AW10" s="1">
-        <v>-107.989000</v>
+        <v>-107.989</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>28196.966415</v>
+        <v>28196.966414999999</v>
       </c>
       <c r="AZ10" s="1">
-        <v>7.832491</v>
+        <v>7.8324910000000001</v>
       </c>
       <c r="BA10" s="1">
-        <v>999.883000</v>
+        <v>999.88300000000004</v>
       </c>
       <c r="BB10" s="1">
-        <v>-123.535000</v>
+        <v>-123.535</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>28207.946846</v>
+        <v>28207.946845999999</v>
       </c>
       <c r="BE10" s="1">
-        <v>7.835541</v>
+        <v>7.8355410000000001</v>
       </c>
       <c r="BF10" s="1">
-        <v>1037.910000</v>
+        <v>1037.9100000000001</v>
       </c>
       <c r="BG10" s="1">
-        <v>-195.290000</v>
+        <v>-195.29</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>28219.079089</v>
+        <v>28219.079088999999</v>
       </c>
       <c r="BJ10" s="1">
-        <v>7.838633</v>
+        <v>7.8386329999999997</v>
       </c>
       <c r="BK10" s="1">
-        <v>1103.940000</v>
+        <v>1103.94</v>
       </c>
       <c r="BL10" s="1">
-        <v>-312.025000</v>
+        <v>-312.02499999999998</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
         <v>28230.037666</v>
       </c>
       <c r="BO10" s="1">
-        <v>7.841677</v>
+        <v>7.8416769999999998</v>
       </c>
       <c r="BP10" s="1">
-        <v>1211.690000</v>
+        <v>1211.69</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-495.985000</v>
+        <v>-495.98500000000001</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
         <v>28241.300819</v>
       </c>
       <c r="BT10" s="1">
-        <v>7.844806</v>
+        <v>7.8448060000000002</v>
       </c>
       <c r="BU10" s="1">
-        <v>1332.950000</v>
+        <v>1332.95</v>
       </c>
       <c r="BV10" s="1">
-        <v>-697.209000</v>
+        <v>-697.20899999999995</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
         <v>28252.356677</v>
       </c>
       <c r="BY10" s="1">
-        <v>7.847877</v>
+        <v>7.8478770000000004</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1468.770000</v>
+        <v>1468.77</v>
       </c>
       <c r="CA10" s="1">
-        <v>-912.307000</v>
+        <v>-912.30700000000002</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>28264.295845</v>
+        <v>28264.295845000001</v>
       </c>
       <c r="CD10" s="1">
-        <v>7.851193</v>
+        <v>7.8511930000000003</v>
       </c>
       <c r="CE10" s="1">
-        <v>1823.960000</v>
+        <v>1823.96</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1422.120000</v>
+        <v>-1422.12</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
         <v>28092.282776</v>
       </c>
       <c r="B11" s="1">
-        <v>7.803412</v>
+        <v>7.8034119999999998</v>
       </c>
       <c r="C11" s="1">
-        <v>900.541000</v>
+        <v>900.54100000000005</v>
       </c>
       <c r="D11" s="1">
-        <v>-202.318000</v>
+        <v>-202.31800000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>28102.679916</v>
+        <v>28102.679916000001</v>
       </c>
       <c r="G11" s="1">
-        <v>7.806300</v>
+        <v>7.8063000000000002</v>
       </c>
       <c r="H11" s="1">
-        <v>918.511000</v>
+        <v>918.51099999999997</v>
       </c>
       <c r="I11" s="1">
-        <v>-170.904000</v>
+        <v>-170.904</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>28112.852860</v>
+        <v>28112.852859999999</v>
       </c>
       <c r="L11" s="1">
         <v>7.809126</v>
       </c>
       <c r="M11" s="1">
-        <v>942.129000</v>
+        <v>942.12900000000002</v>
       </c>
       <c r="N11" s="1">
-        <v>-121.008000</v>
+        <v>-121.008</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>28123.375026</v>
+        <v>28123.375026000002</v>
       </c>
       <c r="Q11" s="1">
         <v>7.812049</v>
       </c>
       <c r="R11" s="1">
-        <v>948.914000</v>
+        <v>948.91399999999999</v>
       </c>
       <c r="S11" s="1">
-        <v>-104.296000</v>
+        <v>-104.29600000000001</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>28133.613409</v>
+        <v>28133.613409000001</v>
       </c>
       <c r="V11" s="1">
-        <v>7.814893</v>
+        <v>7.8148929999999996</v>
       </c>
       <c r="W11" s="1">
-        <v>955.586000</v>
+        <v>955.58600000000001</v>
       </c>
       <c r="X11" s="1">
-        <v>-88.876400</v>
+        <v>-88.876400000000004</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
         <v>28144.117187</v>
       </c>
       <c r="AA11" s="1">
-        <v>7.817810</v>
+        <v>7.8178099999999997</v>
       </c>
       <c r="AB11" s="1">
-        <v>962.537000</v>
+        <v>962.53700000000003</v>
       </c>
       <c r="AC11" s="1">
-        <v>-76.952100</v>
+        <v>-76.952100000000002</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>28154.309511</v>
+        <v>28154.309510999999</v>
       </c>
       <c r="AF11" s="1">
-        <v>7.820642</v>
+        <v>7.8206420000000003</v>
       </c>
       <c r="AG11" s="1">
-        <v>967.128000</v>
+        <v>967.12800000000004</v>
       </c>
       <c r="AH11" s="1">
-        <v>-74.623500</v>
+        <v>-74.623500000000007</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>28164.861401</v>
+        <v>28164.861400999998</v>
       </c>
       <c r="AK11" s="1">
-        <v>7.823573</v>
+        <v>7.8235729999999997</v>
       </c>
       <c r="AL11" s="1">
-        <v>974.171000</v>
+        <v>974.17100000000005</v>
       </c>
       <c r="AM11" s="1">
-        <v>-79.086100</v>
+        <v>-79.086100000000002</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>28175.259500</v>
+        <v>28175.2595</v>
       </c>
       <c r="AP11" s="1">
-        <v>7.826461</v>
+        <v>7.8264610000000001</v>
       </c>
       <c r="AQ11" s="1">
-        <v>982.143000</v>
+        <v>982.14300000000003</v>
       </c>
       <c r="AR11" s="1">
-        <v>-90.439600</v>
+        <v>-90.439599999999999</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>28186.282619</v>
+        <v>28186.282619000001</v>
       </c>
       <c r="AU11" s="1">
         <v>7.829523</v>
       </c>
       <c r="AV11" s="1">
-        <v>991.770000</v>
+        <v>991.77</v>
       </c>
       <c r="AW11" s="1">
-        <v>-107.983000</v>
+        <v>-107.983</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
         <v>28197.324063</v>
       </c>
       <c r="AZ11" s="1">
-        <v>7.832590</v>
+        <v>7.8325899999999997</v>
       </c>
       <c r="BA11" s="1">
-        <v>999.886000</v>
+        <v>999.88599999999997</v>
       </c>
       <c r="BB11" s="1">
-        <v>-123.530000</v>
+        <v>-123.53</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
         <v>28208.377375</v>
       </c>
       <c r="BE11" s="1">
-        <v>7.835660</v>
+        <v>7.8356599999999998</v>
       </c>
       <c r="BF11" s="1">
-        <v>1037.890000</v>
+        <v>1037.8900000000001</v>
       </c>
       <c r="BG11" s="1">
-        <v>-195.268000</v>
+        <v>-195.268</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
         <v>28219.508629</v>
       </c>
       <c r="BJ11" s="1">
-        <v>7.838752</v>
+        <v>7.8387520000000004</v>
       </c>
       <c r="BK11" s="1">
-        <v>1103.910000</v>
+        <v>1103.9100000000001</v>
       </c>
       <c r="BL11" s="1">
-        <v>-312.030000</v>
+        <v>-312.02999999999997</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>28230.428514</v>
+        <v>28230.428513999999</v>
       </c>
       <c r="BO11" s="1">
-        <v>7.841786</v>
+        <v>7.8417859999999999</v>
       </c>
       <c r="BP11" s="1">
-        <v>1211.700000</v>
+        <v>1211.7</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-495.944000</v>
+        <v>-495.94400000000002</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>28241.730850</v>
+        <v>28241.73085</v>
       </c>
       <c r="BT11" s="1">
-        <v>7.844925</v>
+        <v>7.8449249999999999</v>
       </c>
       <c r="BU11" s="1">
-        <v>1332.990000</v>
+        <v>1332.99</v>
       </c>
       <c r="BV11" s="1">
-        <v>-697.248000</v>
+        <v>-697.24800000000005</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>28252.781716</v>
+        <v>28252.781716000001</v>
       </c>
       <c r="BY11" s="1">
-        <v>7.847995</v>
+        <v>7.8479950000000001</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1468.820000</v>
+        <v>1468.82</v>
       </c>
       <c r="CA11" s="1">
-        <v>-912.183000</v>
+        <v>-912.18299999999999</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>28264.835492</v>
+        <v>28264.835491999998</v>
       </c>
       <c r="CD11" s="1">
         <v>7.851343</v>
       </c>
       <c r="CE11" s="1">
-        <v>1824.860000</v>
+        <v>1824.86</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1423.060000</v>
+        <v>-1423.06</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
         <v>28092.630471</v>
       </c>
       <c r="B12" s="1">
-        <v>7.803508</v>
+        <v>7.8035079999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>900.631000</v>
+        <v>900.63099999999997</v>
       </c>
       <c r="D12" s="1">
-        <v>-202.340000</v>
+        <v>-202.34</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>28103.022649</v>
+        <v>28103.022648999999</v>
       </c>
       <c r="G12" s="1">
-        <v>7.806395</v>
+        <v>7.8063950000000002</v>
       </c>
       <c r="H12" s="1">
-        <v>919.095000</v>
+        <v>919.09500000000003</v>
       </c>
       <c r="I12" s="1">
-        <v>-171.180000</v>
+        <v>-171.18</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>28113.196589</v>
+        <v>28113.196588999999</v>
       </c>
       <c r="L12" s="1">
         <v>7.809221</v>
       </c>
       <c r="M12" s="1">
-        <v>942.135000</v>
+        <v>942.13499999999999</v>
       </c>
       <c r="N12" s="1">
-        <v>-120.875000</v>
+        <v>-120.875</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>28124.032190</v>
+        <v>28124.032190000002</v>
       </c>
       <c r="Q12" s="1">
-        <v>7.812231</v>
+        <v>7.8122309999999997</v>
       </c>
       <c r="R12" s="1">
-        <v>948.906000</v>
+        <v>948.90599999999995</v>
       </c>
       <c r="S12" s="1">
-        <v>-104.301000</v>
+        <v>-104.301</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>28134.273088</v>
+        <v>28134.273088000002</v>
       </c>
       <c r="V12" s="1">
-        <v>7.815076</v>
+        <v>7.8150760000000004</v>
       </c>
       <c r="W12" s="1">
-        <v>955.577000</v>
+        <v>955.577</v>
       </c>
       <c r="X12" s="1">
-        <v>-88.852600</v>
+        <v>-88.852599999999995</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>28144.504066</v>
+        <v>28144.504066000001</v>
       </c>
       <c r="AA12" s="1">
-        <v>7.817918</v>
+        <v>7.8179179999999997</v>
       </c>
       <c r="AB12" s="1">
-        <v>962.455000</v>
+        <v>962.45500000000004</v>
       </c>
       <c r="AC12" s="1">
-        <v>-76.850200</v>
+        <v>-76.850200000000001</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>28154.688917</v>
+        <v>28154.688916999999</v>
       </c>
       <c r="AF12" s="1">
-        <v>7.820747</v>
+        <v>7.8207469999999999</v>
       </c>
       <c r="AG12" s="1">
-        <v>967.113000</v>
+        <v>967.11300000000006</v>
       </c>
       <c r="AH12" s="1">
-        <v>-74.548000</v>
+        <v>-74.548000000000002</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>28165.208601</v>
+        <v>28165.208600999998</v>
       </c>
       <c r="AK12" s="1">
-        <v>7.823669</v>
+        <v>7.8236689999999998</v>
       </c>
       <c r="AL12" s="1">
-        <v>974.194000</v>
+        <v>974.19399999999996</v>
       </c>
       <c r="AM12" s="1">
-        <v>-79.080800</v>
+        <v>-79.080799999999996</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>28175.616153</v>
+        <v>28175.616152999999</v>
       </c>
       <c r="AP12" s="1">
-        <v>7.826560</v>
+        <v>7.8265599999999997</v>
       </c>
       <c r="AQ12" s="1">
-        <v>982.108000</v>
+        <v>982.10799999999995</v>
       </c>
       <c r="AR12" s="1">
-        <v>-90.447800</v>
+        <v>-90.447800000000001</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>28186.646189</v>
+        <v>28186.646188999999</v>
       </c>
       <c r="AU12" s="1">
-        <v>7.829624</v>
+        <v>7.8296239999999999</v>
       </c>
       <c r="AV12" s="1">
-        <v>991.791000</v>
+        <v>991.79100000000005</v>
       </c>
       <c r="AW12" s="1">
-        <v>-107.985000</v>
+        <v>-107.985</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>28197.753896</v>
+        <v>28197.753895999998</v>
       </c>
       <c r="AZ12" s="1">
-        <v>7.832709</v>
+        <v>7.8327090000000004</v>
       </c>
       <c r="BA12" s="1">
-        <v>999.878000</v>
+        <v>999.87800000000004</v>
       </c>
       <c r="BB12" s="1">
-        <v>-123.511000</v>
+        <v>-123.511</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>28208.670510</v>
+        <v>28208.67051</v>
       </c>
       <c r="BE12" s="1">
-        <v>7.835742</v>
+        <v>7.8357419999999998</v>
       </c>
       <c r="BF12" s="1">
-        <v>1037.900000</v>
+        <v>1037.9000000000001</v>
       </c>
       <c r="BG12" s="1">
-        <v>-195.268000</v>
+        <v>-195.268</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>28219.852116</v>
+        <v>28219.852115999998</v>
       </c>
       <c r="BJ12" s="1">
-        <v>7.838848</v>
+        <v>7.8388479999999996</v>
       </c>
       <c r="BK12" s="1">
-        <v>1103.890000</v>
+        <v>1103.8900000000001</v>
       </c>
       <c r="BL12" s="1">
-        <v>-311.999000</v>
+        <v>-311.99900000000002</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
         <v>28230.820881</v>
       </c>
       <c r="BO12" s="1">
-        <v>7.841895</v>
+        <v>7.8418950000000001</v>
       </c>
       <c r="BP12" s="1">
-        <v>1211.690000</v>
+        <v>1211.69</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-495.931000</v>
+        <v>-495.93099999999998</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>28242.141570</v>
+        <v>28242.14157</v>
       </c>
       <c r="BT12" s="1">
-        <v>7.845039</v>
+        <v>7.8450389999999999</v>
       </c>
       <c r="BU12" s="1">
-        <v>1332.960000</v>
+        <v>1332.96</v>
       </c>
       <c r="BV12" s="1">
-        <v>-697.206000</v>
+        <v>-697.20600000000002</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>28253.193891</v>
+        <v>28253.193890999999</v>
       </c>
       <c r="BY12" s="1">
         <v>7.848109</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1468.830000</v>
+        <v>1468.83</v>
       </c>
       <c r="CA12" s="1">
-        <v>-912.250000</v>
+        <v>-912.25</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>28265.377619</v>
+        <v>28265.377618999999</v>
       </c>
       <c r="CD12" s="1">
-        <v>7.851494</v>
+        <v>7.8514939999999998</v>
       </c>
       <c r="CE12" s="1">
-        <v>1824.390000</v>
+        <v>1824.39</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1421.620000</v>
+        <v>-1421.62</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>28092.974236</v>
+        <v>28092.974235999998</v>
       </c>
       <c r="B13" s="1">
         <v>7.803604</v>
       </c>
       <c r="C13" s="1">
-        <v>900.758000</v>
+        <v>900.75800000000004</v>
       </c>
       <c r="D13" s="1">
-        <v>-202.244000</v>
+        <v>-202.244</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
         <v>28103.370841</v>
       </c>
       <c r="G13" s="1">
-        <v>7.806492</v>
+        <v>7.8064920000000004</v>
       </c>
       <c r="H13" s="1">
-        <v>919.068000</v>
+        <v>919.06799999999998</v>
       </c>
       <c r="I13" s="1">
-        <v>-170.956000</v>
+        <v>-170.95599999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>28113.860272</v>
+        <v>28113.860272000002</v>
       </c>
       <c r="L13" s="1">
-        <v>7.809406</v>
+        <v>7.8094060000000001</v>
       </c>
       <c r="M13" s="1">
-        <v>942.083000</v>
+        <v>942.08299999999997</v>
       </c>
       <c r="N13" s="1">
-        <v>-120.990000</v>
+        <v>-120.99</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
         <v>28124.419069</v>
       </c>
       <c r="Q13" s="1">
-        <v>7.812339</v>
+        <v>7.8123389999999997</v>
       </c>
       <c r="R13" s="1">
-        <v>949.096000</v>
+        <v>949.096</v>
       </c>
       <c r="S13" s="1">
-        <v>-104.248000</v>
+        <v>-104.248</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
         <v>28134.644096</v>
       </c>
       <c r="V13" s="1">
-        <v>7.815179</v>
+        <v>7.8151789999999997</v>
       </c>
       <c r="W13" s="1">
-        <v>955.658000</v>
+        <v>955.65800000000002</v>
       </c>
       <c r="X13" s="1">
-        <v>-88.862200</v>
+        <v>-88.862200000000001</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>28144.861716</v>
+        <v>28144.861715999999</v>
       </c>
       <c r="AA13" s="1">
-        <v>7.818017</v>
+        <v>7.8180170000000002</v>
       </c>
       <c r="AB13" s="1">
-        <v>962.503000</v>
+        <v>962.50300000000004</v>
       </c>
       <c r="AC13" s="1">
-        <v>-76.897200</v>
+        <v>-76.897199999999998</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
         <v>28155.030165</v>
       </c>
       <c r="AF13" s="1">
-        <v>7.820842</v>
+        <v>7.8208419999999998</v>
       </c>
       <c r="AG13" s="1">
-        <v>967.121000</v>
+        <v>967.12099999999998</v>
       </c>
       <c r="AH13" s="1">
-        <v>-74.580700</v>
+        <v>-74.580699999999993</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>28165.558743</v>
+        <v>28165.558743000001</v>
       </c>
       <c r="AK13" s="1">
         <v>7.823766</v>
       </c>
       <c r="AL13" s="1">
-        <v>974.173000</v>
+        <v>974.173</v>
       </c>
       <c r="AM13" s="1">
-        <v>-79.069200</v>
+        <v>-79.069199999999995</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>28176.038713</v>
+        <v>28176.038713000002</v>
       </c>
       <c r="AP13" s="1">
-        <v>7.826677</v>
+        <v>7.8266770000000001</v>
       </c>
       <c r="AQ13" s="1">
-        <v>982.108000</v>
+        <v>982.10799999999995</v>
       </c>
       <c r="AR13" s="1">
-        <v>-90.479000</v>
+        <v>-90.478999999999999</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
         <v>28187.077178</v>
       </c>
       <c r="AU13" s="1">
-        <v>7.829744</v>
+        <v>7.8297439999999998</v>
       </c>
       <c r="AV13" s="1">
-        <v>991.774000</v>
+        <v>991.774</v>
       </c>
       <c r="AW13" s="1">
-        <v>-107.993000</v>
+        <v>-107.99299999999999</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>28198.044230</v>
+        <v>28198.04423</v>
       </c>
       <c r="AZ13" s="1">
-        <v>7.832790</v>
+        <v>7.8327900000000001</v>
       </c>
       <c r="BA13" s="1">
-        <v>999.881000</v>
+        <v>999.88099999999997</v>
       </c>
       <c r="BB13" s="1">
-        <v>-123.523000</v>
+        <v>-123.523</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>28209.033118</v>
+        <v>28209.033117999999</v>
       </c>
       <c r="BE13" s="1">
-        <v>7.835843</v>
+        <v>7.8358429999999997</v>
       </c>
       <c r="BF13" s="1">
-        <v>1037.890000</v>
+        <v>1037.8900000000001</v>
       </c>
       <c r="BG13" s="1">
-        <v>-195.279000</v>
+        <v>-195.279</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>28220.226830</v>
+        <v>28220.22683</v>
       </c>
       <c r="BJ13" s="1">
-        <v>7.838952</v>
+        <v>7.8389519999999999</v>
       </c>
       <c r="BK13" s="1">
-        <v>1103.940000</v>
+        <v>1103.94</v>
       </c>
       <c r="BL13" s="1">
-        <v>-312.030000</v>
+        <v>-312.02999999999997</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
         <v>28231.241952</v>
       </c>
       <c r="BO13" s="1">
-        <v>7.842012</v>
+        <v>7.8420120000000004</v>
       </c>
       <c r="BP13" s="1">
-        <v>1211.720000</v>
+        <v>1211.72</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-495.927000</v>
+        <v>-495.92700000000002</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>28242.572066</v>
+        <v>28242.572066000001</v>
       </c>
       <c r="BT13" s="1">
-        <v>7.845159</v>
+        <v>7.8451589999999998</v>
       </c>
       <c r="BU13" s="1">
-        <v>1332.960000</v>
+        <v>1332.96</v>
       </c>
       <c r="BV13" s="1">
-        <v>-697.175000</v>
+        <v>-697.17499999999995</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>28253.654178</v>
+        <v>28253.654178000001</v>
       </c>
       <c r="BY13" s="1">
-        <v>7.848237</v>
+        <v>7.8482370000000001</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1468.800000</v>
+        <v>1468.8</v>
       </c>
       <c r="CA13" s="1">
-        <v>-912.235000</v>
+        <v>-912.23500000000001</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>28265.914786</v>
+        <v>28265.914786000001</v>
       </c>
       <c r="CD13" s="1">
-        <v>7.851643</v>
+        <v>7.8516430000000001</v>
       </c>
       <c r="CE13" s="1">
-        <v>1824.410000</v>
+        <v>1824.41</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1423.540000</v>
+        <v>-1423.54</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>28093.627927</v>
+        <v>28093.627927000001</v>
       </c>
       <c r="B14" s="1">
-        <v>7.803786</v>
+        <v>7.8037859999999997</v>
       </c>
       <c r="C14" s="1">
-        <v>900.636000</v>
+        <v>900.63599999999997</v>
       </c>
       <c r="D14" s="1">
-        <v>-202.155000</v>
+        <v>-202.155</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>28104.024569</v>
+        <v>28104.024569000001</v>
       </c>
       <c r="G14" s="1">
         <v>7.806673</v>
       </c>
       <c r="H14" s="1">
-        <v>918.682000</v>
+        <v>918.68200000000002</v>
       </c>
       <c r="I14" s="1">
-        <v>-171.103000</v>
+        <v>-171.10300000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>28114.233724</v>
+        <v>28114.233724000002</v>
       </c>
       <c r="L14" s="1">
-        <v>7.809509</v>
+        <v>7.8095090000000003</v>
       </c>
       <c r="M14" s="1">
-        <v>942.356000</v>
+        <v>942.35599999999999</v>
       </c>
       <c r="N14" s="1">
-        <v>-120.776000</v>
+        <v>-120.776</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>28124.769273</v>
+        <v>28124.769273000002</v>
       </c>
       <c r="Q14" s="1">
-        <v>7.812436</v>
+        <v>7.8124359999999999</v>
       </c>
       <c r="R14" s="1">
-        <v>949.072000</v>
+        <v>949.072</v>
       </c>
       <c r="S14" s="1">
-        <v>-104.274000</v>
+        <v>-104.274</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>28134.987823</v>
+        <v>28134.987822999999</v>
       </c>
       <c r="V14" s="1">
-        <v>7.815274</v>
+        <v>7.8152739999999996</v>
       </c>
       <c r="W14" s="1">
-        <v>955.607000</v>
+        <v>955.60699999999997</v>
       </c>
       <c r="X14" s="1">
-        <v>-88.773800</v>
+        <v>-88.773799999999994</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>28145.204915</v>
+        <v>28145.204914999998</v>
       </c>
       <c r="AA14" s="1">
-        <v>7.818112</v>
+        <v>7.8181120000000002</v>
       </c>
       <c r="AB14" s="1">
-        <v>962.542000</v>
+        <v>962.54200000000003</v>
       </c>
       <c r="AC14" s="1">
-        <v>-76.936600</v>
+        <v>-76.936599999999999</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>28155.371908</v>
+        <v>28155.371908000001</v>
       </c>
       <c r="AF14" s="1">
-        <v>7.820937</v>
+        <v>7.8209369999999998</v>
       </c>
       <c r="AG14" s="1">
-        <v>967.090000</v>
+        <v>967.09</v>
       </c>
       <c r="AH14" s="1">
-        <v>-74.597400</v>
+        <v>-74.597399999999993</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>28165.988776</v>
+        <v>28165.988775999998</v>
       </c>
       <c r="AK14" s="1">
-        <v>7.823886</v>
+        <v>7.8238859999999999</v>
       </c>
       <c r="AL14" s="1">
-        <v>974.192000</v>
+        <v>974.19200000000001</v>
       </c>
       <c r="AM14" s="1">
-        <v>-79.066100</v>
+        <v>-79.066100000000006</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>28176.339159</v>
+        <v>28176.339158999999</v>
       </c>
       <c r="AP14" s="1">
-        <v>7.826761</v>
+        <v>7.8267610000000003</v>
       </c>
       <c r="AQ14" s="1">
-        <v>982.129000</v>
+        <v>982.12900000000002</v>
       </c>
       <c r="AR14" s="1">
-        <v>-90.466800</v>
+        <v>-90.466800000000006</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>28187.376764</v>
+        <v>28187.376764000001</v>
       </c>
       <c r="AU14" s="1">
-        <v>7.829827</v>
+        <v>7.8298269999999999</v>
       </c>
       <c r="AV14" s="1">
-        <v>991.780000</v>
+        <v>991.78</v>
       </c>
       <c r="AW14" s="1">
-        <v>-107.994000</v>
+        <v>-107.994</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>28198.400347</v>
+        <v>28198.400346999999</v>
       </c>
       <c r="AZ14" s="1">
-        <v>7.832889</v>
+        <v>7.8328889999999998</v>
       </c>
       <c r="BA14" s="1">
-        <v>999.867000</v>
+        <v>999.86699999999996</v>
       </c>
       <c r="BB14" s="1">
-        <v>-123.554000</v>
+        <v>-123.554</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>28209.392686</v>
+        <v>28209.392685999999</v>
       </c>
       <c r="BE14" s="1">
-        <v>7.835942</v>
+        <v>7.8359420000000002</v>
       </c>
       <c r="BF14" s="1">
-        <v>1037.890000</v>
+        <v>1037.8900000000001</v>
       </c>
       <c r="BG14" s="1">
-        <v>-195.265000</v>
+        <v>-195.26499999999999</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>28220.606734</v>
+        <v>28220.606734000001</v>
       </c>
       <c r="BJ14" s="1">
-        <v>7.839057</v>
+        <v>7.8390570000000004</v>
       </c>
       <c r="BK14" s="1">
-        <v>1103.920000</v>
+        <v>1103.92</v>
       </c>
       <c r="BL14" s="1">
-        <v>-312.030000</v>
+        <v>-312.02999999999997</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
         <v>28232.059394</v>
       </c>
       <c r="BO14" s="1">
-        <v>7.842239</v>
+        <v>7.8422390000000002</v>
       </c>
       <c r="BP14" s="1">
-        <v>1211.750000</v>
+        <v>1211.75</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-495.942000</v>
+        <v>-495.94200000000001</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>28242.999617</v>
+        <v>28242.999617000001</v>
       </c>
       <c r="BT14" s="1">
-        <v>7.845278</v>
+        <v>7.8452780000000004</v>
       </c>
       <c r="BU14" s="1">
-        <v>1333.090000</v>
+        <v>1333.09</v>
       </c>
       <c r="BV14" s="1">
-        <v>-697.217000</v>
+        <v>-697.21699999999998</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>28254.100615</v>
+        <v>28254.100614999999</v>
       </c>
       <c r="BY14" s="1">
-        <v>7.848361</v>
+        <v>7.8483609999999997</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1468.850000</v>
+        <v>1468.85</v>
       </c>
       <c r="CA14" s="1">
-        <v>-912.348000</v>
+        <v>-912.34799999999996</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
         <v>28266.455426</v>
       </c>
       <c r="CD14" s="1">
-        <v>7.851793</v>
+        <v>7.8517929999999998</v>
       </c>
       <c r="CE14" s="1">
-        <v>1825.230000</v>
+        <v>1825.23</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1421.760000</v>
+        <v>-1421.76</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
         <v>28093.995959</v>
       </c>
       <c r="B15" s="1">
-        <v>7.803888</v>
+        <v>7.8038879999999997</v>
       </c>
       <c r="C15" s="1">
-        <v>900.691000</v>
+        <v>900.69100000000003</v>
       </c>
       <c r="D15" s="1">
-        <v>-202.367000</v>
+        <v>-202.36699999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>28104.404504</v>
+        <v>28104.404503999998</v>
       </c>
       <c r="G15" s="1">
-        <v>7.806779</v>
+        <v>7.8067789999999997</v>
       </c>
       <c r="H15" s="1">
-        <v>918.841000</v>
+        <v>918.84100000000001</v>
       </c>
       <c r="I15" s="1">
-        <v>-171.283000</v>
+        <v>-171.28299999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>28114.579937</v>
+        <v>28114.579936999999</v>
       </c>
       <c r="L15" s="1">
-        <v>7.809606</v>
+        <v>7.8096059999999996</v>
       </c>
       <c r="M15" s="1">
-        <v>942.078000</v>
+        <v>942.07799999999997</v>
       </c>
       <c r="N15" s="1">
-        <v>-120.906000</v>
+        <v>-120.90600000000001</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>28125.115948</v>
+        <v>28125.115947999999</v>
       </c>
       <c r="Q15" s="1">
         <v>7.812532</v>
       </c>
       <c r="R15" s="1">
-        <v>949.029000</v>
+        <v>949.029</v>
       </c>
       <c r="S15" s="1">
-        <v>-104.275000</v>
+        <v>-104.27500000000001</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>28135.335060</v>
+        <v>28135.335060000001</v>
       </c>
       <c r="V15" s="1">
-        <v>7.815371</v>
+        <v>7.8153709999999998</v>
       </c>
       <c r="W15" s="1">
-        <v>955.596000</v>
+        <v>955.596</v>
       </c>
       <c r="X15" s="1">
-        <v>-88.817400</v>
+        <v>-88.817400000000006</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>28145.625315</v>
+        <v>28145.625315000001</v>
       </c>
       <c r="AA15" s="1">
-        <v>7.818229</v>
+        <v>7.8182289999999997</v>
       </c>
       <c r="AB15" s="1">
-        <v>962.550000</v>
+        <v>962.55</v>
       </c>
       <c r="AC15" s="1">
-        <v>-76.976400</v>
+        <v>-76.976399999999998</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
         <v>28156.055396</v>
       </c>
       <c r="AF15" s="1">
-        <v>7.821126</v>
+        <v>7.8211259999999996</v>
       </c>
       <c r="AG15" s="1">
-        <v>967.113000</v>
+        <v>967.11300000000006</v>
       </c>
       <c r="AH15" s="1">
-        <v>-74.577000</v>
+        <v>-74.576999999999998</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
         <v>28166.267066</v>
@@ -3927,225 +4343,225 @@
         <v>7.823963</v>
       </c>
       <c r="AL15" s="1">
-        <v>974.183000</v>
+        <v>974.18299999999999</v>
       </c>
       <c r="AM15" s="1">
-        <v>-79.109100</v>
+        <v>-79.109099999999998</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>28176.700408</v>
+        <v>28176.700408000001</v>
       </c>
       <c r="AP15" s="1">
-        <v>7.826861</v>
+        <v>7.8268610000000001</v>
       </c>
       <c r="AQ15" s="1">
-        <v>982.112000</v>
+        <v>982.11199999999997</v>
       </c>
       <c r="AR15" s="1">
-        <v>-90.466900</v>
+        <v>-90.466899999999995</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
         <v>28187.745787</v>
       </c>
       <c r="AU15" s="1">
-        <v>7.829929</v>
+        <v>7.8299289999999999</v>
       </c>
       <c r="AV15" s="1">
-        <v>991.788000</v>
+        <v>991.78800000000001</v>
       </c>
       <c r="AW15" s="1">
-        <v>-107.992000</v>
+        <v>-107.992</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>28198.762923</v>
+        <v>28198.762922999998</v>
       </c>
       <c r="AZ15" s="1">
-        <v>7.832990</v>
+        <v>7.8329899999999997</v>
       </c>
       <c r="BA15" s="1">
-        <v>999.861000</v>
+        <v>999.86099999999999</v>
       </c>
       <c r="BB15" s="1">
-        <v>-123.536000</v>
+        <v>-123.536</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
         <v>28210.116348</v>
       </c>
       <c r="BE15" s="1">
-        <v>7.836143</v>
+        <v>7.8361429999999999</v>
       </c>
       <c r="BF15" s="1">
-        <v>1037.900000</v>
+        <v>1037.9000000000001</v>
       </c>
       <c r="BG15" s="1">
-        <v>-195.273000</v>
+        <v>-195.273</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>28221.356189</v>
+        <v>28221.356188999998</v>
       </c>
       <c r="BJ15" s="1">
-        <v>7.839266</v>
+        <v>7.8392660000000003</v>
       </c>
       <c r="BK15" s="1">
-        <v>1103.890000</v>
+        <v>1103.8900000000001</v>
       </c>
       <c r="BL15" s="1">
-        <v>-312.024000</v>
+        <v>-312.024</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>28232.475998</v>
+        <v>28232.475998000002</v>
       </c>
       <c r="BO15" s="1">
-        <v>7.842354</v>
+        <v>7.8423540000000003</v>
       </c>
       <c r="BP15" s="1">
-        <v>1211.700000</v>
+        <v>1211.7</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-495.954000</v>
+        <v>-495.95400000000001</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>28243.411328</v>
+        <v>28243.411327999998</v>
       </c>
       <c r="BT15" s="1">
-        <v>7.845392</v>
+        <v>7.8453920000000004</v>
       </c>
       <c r="BU15" s="1">
-        <v>1333.020000</v>
+        <v>1333.02</v>
       </c>
       <c r="BV15" s="1">
-        <v>-697.143000</v>
+        <v>-697.14300000000003</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>28254.555410</v>
+        <v>28254.555410000001</v>
       </c>
       <c r="BY15" s="1">
-        <v>7.848488</v>
+        <v>7.8484879999999997</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1468.840000</v>
+        <v>1468.84</v>
       </c>
       <c r="CA15" s="1">
-        <v>-912.210000</v>
+        <v>-912.21</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>28267.312514</v>
+        <v>28267.312514000001</v>
       </c>
       <c r="CD15" s="1">
-        <v>7.852031</v>
+        <v>7.8520310000000002</v>
       </c>
       <c r="CE15" s="1">
-        <v>1824.700000</v>
+        <v>1824.7</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1423.400000</v>
+        <v>-1423.4</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>28094.341211</v>
+        <v>28094.341210999999</v>
       </c>
       <c r="B16" s="1">
-        <v>7.803984</v>
+        <v>7.8039839999999998</v>
       </c>
       <c r="C16" s="1">
-        <v>900.799000</v>
+        <v>900.79899999999998</v>
       </c>
       <c r="D16" s="1">
-        <v>-202.431000</v>
+        <v>-202.43100000000001</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>28104.747241</v>
+        <v>28104.747241000001</v>
       </c>
       <c r="G16" s="1">
-        <v>7.806874</v>
+        <v>7.8068739999999996</v>
       </c>
       <c r="H16" s="1">
-        <v>918.835000</v>
+        <v>918.83500000000004</v>
       </c>
       <c r="I16" s="1">
-        <v>-171.218000</v>
+        <v>-171.21799999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>28114.928122</v>
+        <v>28114.928122000001</v>
       </c>
       <c r="L16" s="1">
-        <v>7.809702</v>
+        <v>7.8097019999999997</v>
       </c>
       <c r="M16" s="1">
-        <v>942.230000</v>
+        <v>942.23</v>
       </c>
       <c r="N16" s="1">
-        <v>-120.877000</v>
+        <v>-120.877</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>28125.536093</v>
+        <v>28125.536092999999</v>
       </c>
       <c r="Q16" s="1">
-        <v>7.812649</v>
+        <v>7.8126490000000004</v>
       </c>
       <c r="R16" s="1">
-        <v>949.000000</v>
+        <v>949</v>
       </c>
       <c r="S16" s="1">
-        <v>-104.268000</v>
+        <v>-104.268</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>28135.758144</v>
+        <v>28135.758143999999</v>
       </c>
       <c r="V16" s="1">
-        <v>7.815488</v>
+        <v>7.8154880000000002</v>
       </c>
       <c r="W16" s="1">
-        <v>955.638000</v>
+        <v>955.63800000000003</v>
       </c>
       <c r="X16" s="1">
-        <v>-88.860700</v>
+        <v>-88.860699999999994</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
         <v>28145.907249</v>
@@ -4154,43 +4570,43 @@
         <v>7.818308</v>
       </c>
       <c r="AB16" s="1">
-        <v>962.568000</v>
+        <v>962.56799999999998</v>
       </c>
       <c r="AC16" s="1">
-        <v>-76.932700</v>
+        <v>-76.932699999999997</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
         <v>28156.403091</v>
       </c>
       <c r="AF16" s="1">
-        <v>7.821223</v>
+        <v>7.8212229999999998</v>
       </c>
       <c r="AG16" s="1">
-        <v>967.095000</v>
+        <v>967.09500000000003</v>
       </c>
       <c r="AH16" s="1">
-        <v>-74.603000</v>
+        <v>-74.602999999999994</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>28166.615751</v>
+        <v>28166.615751000001</v>
       </c>
       <c r="AK16" s="1">
-        <v>7.824060</v>
+        <v>7.8240600000000002</v>
       </c>
       <c r="AL16" s="1">
-        <v>974.179000</v>
+        <v>974.17899999999997</v>
       </c>
       <c r="AM16" s="1">
-        <v>-79.108900</v>
+        <v>-79.108900000000006</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
         <v>28177.062952</v>
@@ -4199,118 +4615,118 @@
         <v>7.826962</v>
       </c>
       <c r="AQ16" s="1">
-        <v>982.114000</v>
+        <v>982.11400000000003</v>
       </c>
       <c r="AR16" s="1">
-        <v>-90.434600</v>
+        <v>-90.434600000000003</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
         <v>28188.109353</v>
       </c>
       <c r="AU16" s="1">
-        <v>7.830030</v>
+        <v>7.8300299999999998</v>
       </c>
       <c r="AV16" s="1">
-        <v>991.809000</v>
+        <v>991.80899999999997</v>
       </c>
       <c r="AW16" s="1">
-        <v>-107.993000</v>
+        <v>-107.99299999999999</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>28199.476171</v>
+        <v>28199.476170999998</v>
       </c>
       <c r="AZ16" s="1">
-        <v>7.833188</v>
+        <v>7.8331879999999998</v>
       </c>
       <c r="BA16" s="1">
-        <v>999.862000</v>
+        <v>999.86199999999997</v>
       </c>
       <c r="BB16" s="1">
-        <v>-123.536000</v>
+        <v>-123.536</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>28210.504221</v>
+        <v>28210.504220999999</v>
       </c>
       <c r="BE16" s="1">
-        <v>7.836251</v>
+        <v>7.8362509999999999</v>
       </c>
       <c r="BF16" s="1">
-        <v>1037.910000</v>
+        <v>1037.9100000000001</v>
       </c>
       <c r="BG16" s="1">
-        <v>-195.238000</v>
+        <v>-195.238</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
         <v>28221.729678</v>
       </c>
       <c r="BJ16" s="1">
-        <v>7.839369</v>
+        <v>7.8393689999999996</v>
       </c>
       <c r="BK16" s="1">
-        <v>1103.910000</v>
+        <v>1103.9100000000001</v>
       </c>
       <c r="BL16" s="1">
-        <v>-312.015000</v>
+        <v>-312.01499999999999</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>28232.873337</v>
+        <v>28232.873337000001</v>
       </c>
       <c r="BO16" s="1">
-        <v>7.842465</v>
+        <v>7.8424649999999998</v>
       </c>
       <c r="BP16" s="1">
-        <v>1211.700000</v>
+        <v>1211.7</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-495.935000</v>
+        <v>-495.935</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>28244.147391</v>
+        <v>28244.147390999999</v>
       </c>
       <c r="BT16" s="1">
-        <v>7.845596</v>
+        <v>7.8455959999999996</v>
       </c>
       <c r="BU16" s="1">
-        <v>1333.090000</v>
+        <v>1333.09</v>
       </c>
       <c r="BV16" s="1">
-        <v>-697.223000</v>
+        <v>-697.22299999999996</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>28255.003300</v>
+        <v>28255.0033</v>
       </c>
       <c r="BY16" s="1">
-        <v>7.848612</v>
+        <v>7.8486120000000001</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1468.720000</v>
+        <v>1468.72</v>
       </c>
       <c r="CA16" s="1">
-        <v>-912.311000</v>
+        <v>-912.31100000000004</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
         <v>28267.535248</v>
@@ -4319,392 +4735,392 @@
         <v>7.852093</v>
       </c>
       <c r="CE16" s="1">
-        <v>1824.630000</v>
+        <v>1824.63</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1423.520000</v>
+        <v>-1423.52</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>28094.683908</v>
+        <v>28094.683907999999</v>
       </c>
       <c r="B17" s="1">
-        <v>7.804079</v>
+        <v>7.8040789999999998</v>
       </c>
       <c r="C17" s="1">
-        <v>900.684000</v>
+        <v>900.68399999999997</v>
       </c>
       <c r="D17" s="1">
-        <v>-202.217000</v>
+        <v>-202.21700000000001</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>28105.091465</v>
+        <v>28105.091465000001</v>
       </c>
       <c r="G17" s="1">
-        <v>7.806970</v>
+        <v>7.8069699999999997</v>
       </c>
       <c r="H17" s="1">
-        <v>919.292000</v>
+        <v>919.29200000000003</v>
       </c>
       <c r="I17" s="1">
-        <v>-171.213000</v>
+        <v>-171.21299999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>28115.347241</v>
+        <v>28115.347240999999</v>
       </c>
       <c r="L17" s="1">
-        <v>7.809819</v>
+        <v>7.8098190000000001</v>
       </c>
       <c r="M17" s="1">
-        <v>942.132000</v>
+        <v>942.13199999999995</v>
       </c>
       <c r="N17" s="1">
-        <v>-120.916000</v>
+        <v>-120.916</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>28125.822251</v>
+        <v>28125.822251000001</v>
       </c>
       <c r="Q17" s="1">
-        <v>7.812728</v>
+        <v>7.8127279999999999</v>
       </c>
       <c r="R17" s="1">
-        <v>948.911000</v>
+        <v>948.91099999999994</v>
       </c>
       <c r="S17" s="1">
-        <v>-104.320000</v>
+        <v>-104.32</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>28136.039838</v>
+        <v>28136.039838000001</v>
       </c>
       <c r="V17" s="1">
-        <v>7.815567</v>
+        <v>7.8155669999999997</v>
       </c>
       <c r="W17" s="1">
-        <v>955.585000</v>
+        <v>955.58500000000004</v>
       </c>
       <c r="X17" s="1">
-        <v>-88.858100</v>
+        <v>-88.858099999999993</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
         <v>28146.257425</v>
       </c>
       <c r="AA17" s="1">
-        <v>7.818405</v>
+        <v>7.8184050000000003</v>
       </c>
       <c r="AB17" s="1">
-        <v>962.563000</v>
+        <v>962.56299999999999</v>
       </c>
       <c r="AC17" s="1">
-        <v>-76.970500</v>
+        <v>-76.970500000000001</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
         <v>28156.743843</v>
       </c>
       <c r="AF17" s="1">
-        <v>7.821318</v>
+        <v>7.8213179999999998</v>
       </c>
       <c r="AG17" s="1">
-        <v>967.108000</v>
+        <v>967.10799999999995</v>
       </c>
       <c r="AH17" s="1">
-        <v>-74.588900</v>
+        <v>-74.588899999999995</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
         <v>28166.962421</v>
       </c>
       <c r="AK17" s="1">
-        <v>7.824156</v>
+        <v>7.8241560000000003</v>
       </c>
       <c r="AL17" s="1">
-        <v>974.175000</v>
+        <v>974.17499999999995</v>
       </c>
       <c r="AM17" s="1">
-        <v>-79.070300</v>
+        <v>-79.070300000000003</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>28177.780694</v>
+        <v>28177.780694000001</v>
       </c>
       <c r="AP17" s="1">
-        <v>7.827161</v>
+        <v>7.8271610000000003</v>
       </c>
       <c r="AQ17" s="1">
-        <v>982.136000</v>
+        <v>982.13599999999997</v>
       </c>
       <c r="AR17" s="1">
-        <v>-90.458400</v>
+        <v>-90.458399999999997</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
         <v>28188.851864</v>
       </c>
       <c r="AU17" s="1">
-        <v>7.830237</v>
+        <v>7.8302370000000003</v>
       </c>
       <c r="AV17" s="1">
-        <v>991.779000</v>
+        <v>991.779</v>
       </c>
       <c r="AW17" s="1">
-        <v>-108.000000</v>
+        <v>-108</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>28199.837272</v>
+        <v>28199.837272000001</v>
       </c>
       <c r="AZ17" s="1">
-        <v>7.833288</v>
+        <v>7.8332879999999996</v>
       </c>
       <c r="BA17" s="1">
-        <v>999.878000</v>
+        <v>999.87800000000004</v>
       </c>
       <c r="BB17" s="1">
-        <v>-123.505000</v>
+        <v>-123.505</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>28210.883162</v>
+        <v>28210.883161999998</v>
       </c>
       <c r="BE17" s="1">
-        <v>7.836356</v>
+        <v>7.8363560000000003</v>
       </c>
       <c r="BF17" s="1">
-        <v>1037.890000</v>
+        <v>1037.8900000000001</v>
       </c>
       <c r="BG17" s="1">
-        <v>-195.267000</v>
+        <v>-195.267</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>28222.414156</v>
+        <v>28222.414155999999</v>
       </c>
       <c r="BJ17" s="1">
-        <v>7.839559</v>
+        <v>7.8395590000000004</v>
       </c>
       <c r="BK17" s="1">
-        <v>1103.930000</v>
+        <v>1103.93</v>
       </c>
       <c r="BL17" s="1">
-        <v>-312.014000</v>
+        <v>-312.01400000000001</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>28233.613822</v>
+        <v>28233.613821999999</v>
       </c>
       <c r="BO17" s="1">
-        <v>7.842671</v>
+        <v>7.8426710000000002</v>
       </c>
       <c r="BP17" s="1">
-        <v>1211.720000</v>
+        <v>1211.72</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-495.880000</v>
+        <v>-495.88</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
         <v>28244.269376</v>
       </c>
       <c r="BT17" s="1">
-        <v>7.845630</v>
+        <v>7.8456299999999999</v>
       </c>
       <c r="BU17" s="1">
-        <v>1333.060000</v>
+        <v>1333.06</v>
       </c>
       <c r="BV17" s="1">
-        <v>-697.219000</v>
+        <v>-697.21900000000005</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>28255.461600</v>
+        <v>28255.461599999999</v>
       </c>
       <c r="BY17" s="1">
-        <v>7.848739</v>
+        <v>7.8487390000000001</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1468.720000</v>
+        <v>1468.72</v>
       </c>
       <c r="CA17" s="1">
-        <v>-912.280000</v>
+        <v>-912.28</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>28268.055552</v>
+        <v>28268.055552000002</v>
       </c>
       <c r="CD17" s="1">
-        <v>7.852238</v>
+        <v>7.8522379999999998</v>
       </c>
       <c r="CE17" s="1">
-        <v>1825.300000</v>
+        <v>1825.3</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1422.230000</v>
+        <v>-1422.23</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>28095.108980</v>
+        <v>28095.108980000001</v>
       </c>
       <c r="B18" s="1">
-        <v>7.804197</v>
+        <v>7.8041970000000003</v>
       </c>
       <c r="C18" s="1">
-        <v>900.751000</v>
+        <v>900.75099999999998</v>
       </c>
       <c r="D18" s="1">
-        <v>-202.348000</v>
+        <v>-202.34800000000001</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
         <v>28105.536871</v>
       </c>
       <c r="G18" s="1">
-        <v>7.807094</v>
+        <v>7.8070940000000002</v>
       </c>
       <c r="H18" s="1">
-        <v>919.485000</v>
+        <v>919.48500000000001</v>
       </c>
       <c r="I18" s="1">
-        <v>-171.156000</v>
+        <v>-171.15600000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
         <v>28115.633929</v>
       </c>
       <c r="L18" s="1">
-        <v>7.809898</v>
+        <v>7.8098979999999996</v>
       </c>
       <c r="M18" s="1">
-        <v>942.294000</v>
+        <v>942.29399999999998</v>
       </c>
       <c r="N18" s="1">
-        <v>-120.864000</v>
+        <v>-120.864</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>28126.174410</v>
+        <v>28126.17441</v>
       </c>
       <c r="Q18" s="1">
-        <v>7.812826</v>
+        <v>7.8128260000000003</v>
       </c>
       <c r="R18" s="1">
-        <v>948.883000</v>
+        <v>948.88300000000004</v>
       </c>
       <c r="S18" s="1">
-        <v>-104.312000</v>
+        <v>-104.312</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>28136.383101</v>
+        <v>28136.383100999999</v>
       </c>
       <c r="V18" s="1">
-        <v>7.815662</v>
+        <v>7.8156619999999997</v>
       </c>
       <c r="W18" s="1">
-        <v>955.603000</v>
+        <v>955.60299999999995</v>
       </c>
       <c r="X18" s="1">
-        <v>-88.922900</v>
+        <v>-88.922899999999998</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>28146.605618</v>
+        <v>28146.605618000001</v>
       </c>
       <c r="AA18" s="1">
-        <v>7.818502</v>
+        <v>7.8185019999999996</v>
       </c>
       <c r="AB18" s="1">
-        <v>962.560000</v>
+        <v>962.56</v>
       </c>
       <c r="AC18" s="1">
-        <v>-76.954200</v>
+        <v>-76.9542</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
         <v>28157.431298</v>
       </c>
       <c r="AF18" s="1">
-        <v>7.821509</v>
+        <v>7.8215089999999998</v>
       </c>
       <c r="AG18" s="1">
-        <v>967.106000</v>
+        <v>967.10599999999999</v>
       </c>
       <c r="AH18" s="1">
-        <v>-74.577800</v>
+        <v>-74.577799999999996</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>28167.659798</v>
+        <v>28167.659798000001</v>
       </c>
       <c r="AK18" s="1">
-        <v>7.824350</v>
+        <v>7.8243499999999999</v>
       </c>
       <c r="AL18" s="1">
-        <v>974.182000</v>
+        <v>974.18200000000002</v>
       </c>
       <c r="AM18" s="1">
-        <v>-79.062900</v>
+        <v>-79.062899999999999</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
         <v>28178.140786</v>
@@ -4713,512 +5129,512 @@
         <v>7.827261</v>
       </c>
       <c r="AQ18" s="1">
-        <v>982.141000</v>
+        <v>982.14099999999996</v>
       </c>
       <c r="AR18" s="1">
-        <v>-90.474600</v>
+        <v>-90.474599999999995</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>28189.219431</v>
+        <v>28189.219431000001</v>
       </c>
       <c r="AU18" s="1">
-        <v>7.830339</v>
+        <v>7.8303390000000004</v>
       </c>
       <c r="AV18" s="1">
-        <v>991.786000</v>
+        <v>991.78599999999994</v>
       </c>
       <c r="AW18" s="1">
-        <v>-108.006000</v>
+        <v>-108.006</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>28200.195369</v>
+        <v>28200.195369000001</v>
       </c>
       <c r="AZ18" s="1">
-        <v>7.833388</v>
+        <v>7.8333880000000002</v>
       </c>
       <c r="BA18" s="1">
-        <v>999.866000</v>
+        <v>999.86599999999999</v>
       </c>
       <c r="BB18" s="1">
-        <v>-123.522000</v>
+        <v>-123.52200000000001</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>28211.560204</v>
+        <v>28211.560204000001</v>
       </c>
       <c r="BE18" s="1">
-        <v>7.836545</v>
+        <v>7.8365450000000001</v>
       </c>
       <c r="BF18" s="1">
-        <v>1037.880000</v>
+        <v>1037.8800000000001</v>
       </c>
       <c r="BG18" s="1">
-        <v>-195.264000</v>
+        <v>-195.26400000000001</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>28222.856126</v>
+        <v>28222.856125999999</v>
       </c>
       <c r="BJ18" s="1">
-        <v>7.839682</v>
+        <v>7.8396819999999998</v>
       </c>
       <c r="BK18" s="1">
-        <v>1103.910000</v>
+        <v>1103.9100000000001</v>
       </c>
       <c r="BL18" s="1">
-        <v>-312.008000</v>
+        <v>-312.00799999999998</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>28234.113325</v>
+        <v>28234.113324999998</v>
       </c>
       <c r="BO18" s="1">
-        <v>7.842809</v>
+        <v>7.8428089999999999</v>
       </c>
       <c r="BP18" s="1">
-        <v>1211.720000</v>
+        <v>1211.72</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-495.926000</v>
+        <v>-495.92599999999999</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>28244.678575</v>
+        <v>28244.678575000002</v>
       </c>
       <c r="BT18" s="1">
-        <v>7.845744</v>
+        <v>7.8457439999999998</v>
       </c>
       <c r="BU18" s="1">
-        <v>1333.050000</v>
+        <v>1333.05</v>
       </c>
       <c r="BV18" s="1">
-        <v>-697.208000</v>
+        <v>-697.20799999999997</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
         <v>28255.911472</v>
       </c>
       <c r="BY18" s="1">
-        <v>7.848864</v>
+        <v>7.8488639999999998</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1468.750000</v>
+        <v>1468.75</v>
       </c>
       <c r="CA18" s="1">
-        <v>-912.274000</v>
+        <v>-912.274</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>28268.571855</v>
+        <v>28268.571854999998</v>
       </c>
       <c r="CD18" s="1">
-        <v>7.852381</v>
+        <v>7.8523810000000003</v>
       </c>
       <c r="CE18" s="1">
-        <v>1825.160000</v>
+        <v>1825.16</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1422.930000</v>
+        <v>-1422.93</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>28095.382771</v>
+        <v>28095.382771000001</v>
       </c>
       <c r="B19" s="1">
-        <v>7.804273</v>
+        <v>7.8042730000000002</v>
       </c>
       <c r="C19" s="1">
-        <v>900.529000</v>
+        <v>900.529</v>
       </c>
       <c r="D19" s="1">
-        <v>-202.279000</v>
+        <v>-202.279</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>28105.789832</v>
+        <v>28105.789831999999</v>
       </c>
       <c r="G19" s="1">
-        <v>7.807164</v>
+        <v>7.8071640000000002</v>
       </c>
       <c r="H19" s="1">
-        <v>918.796000</v>
+        <v>918.79600000000005</v>
       </c>
       <c r="I19" s="1">
-        <v>-170.940000</v>
+        <v>-170.94</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
         <v>28115.985096</v>
       </c>
       <c r="L19" s="1">
-        <v>7.809996</v>
+        <v>7.8099959999999999</v>
       </c>
       <c r="M19" s="1">
-        <v>942.062000</v>
+        <v>942.06200000000001</v>
       </c>
       <c r="N19" s="1">
-        <v>-120.921000</v>
+        <v>-120.92100000000001</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>28126.520618</v>
+        <v>28126.520617999999</v>
       </c>
       <c r="Q19" s="1">
-        <v>7.812922</v>
+        <v>7.8129220000000004</v>
       </c>
       <c r="R19" s="1">
-        <v>948.952000</v>
+        <v>948.952</v>
       </c>
       <c r="S19" s="1">
-        <v>-104.290000</v>
+        <v>-104.29</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>28136.726073</v>
+        <v>28136.726073000002</v>
       </c>
       <c r="V19" s="1">
-        <v>7.815757</v>
+        <v>7.8157569999999996</v>
       </c>
       <c r="W19" s="1">
-        <v>955.640000</v>
+        <v>955.64</v>
       </c>
       <c r="X19" s="1">
-        <v>-88.836700</v>
+        <v>-88.836699999999993</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
         <v>28147.299519</v>
       </c>
       <c r="AA19" s="1">
-        <v>7.818694</v>
+        <v>7.8186939999999998</v>
       </c>
       <c r="AB19" s="1">
-        <v>962.508000</v>
+        <v>962.50800000000004</v>
       </c>
       <c r="AC19" s="1">
-        <v>-76.972000</v>
+        <v>-76.971999999999994</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>28157.774530</v>
+        <v>28157.774529999999</v>
       </c>
       <c r="AF19" s="1">
-        <v>7.821604</v>
+        <v>7.8216039999999998</v>
       </c>
       <c r="AG19" s="1">
-        <v>967.105000</v>
+        <v>967.10500000000002</v>
       </c>
       <c r="AH19" s="1">
-        <v>-74.570900</v>
+        <v>-74.570899999999995</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>28168.007493</v>
+        <v>28168.007493000001</v>
       </c>
       <c r="AK19" s="1">
-        <v>7.824447</v>
+        <v>7.8244470000000002</v>
       </c>
       <c r="AL19" s="1">
-        <v>974.180000</v>
+        <v>974.18</v>
       </c>
       <c r="AM19" s="1">
-        <v>-79.075500</v>
+        <v>-79.075500000000005</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>28178.500854</v>
+        <v>28178.500854000002</v>
       </c>
       <c r="AP19" s="1">
-        <v>7.827361</v>
+        <v>7.8273609999999998</v>
       </c>
       <c r="AQ19" s="1">
-        <v>982.124000</v>
+        <v>982.12400000000002</v>
       </c>
       <c r="AR19" s="1">
-        <v>-90.446600</v>
+        <v>-90.446600000000004</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>28189.889494</v>
+        <v>28189.889493999999</v>
       </c>
       <c r="AU19" s="1">
-        <v>7.830525</v>
+        <v>7.8305249999999997</v>
       </c>
       <c r="AV19" s="1">
-        <v>991.771000</v>
+        <v>991.77099999999996</v>
       </c>
       <c r="AW19" s="1">
-        <v>-108.010000</v>
+        <v>-108.01</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>28200.880840</v>
+        <v>28200.880840000002</v>
       </c>
       <c r="AZ19" s="1">
-        <v>7.833578</v>
+        <v>7.8335780000000002</v>
       </c>
       <c r="BA19" s="1">
-        <v>999.901000</v>
+        <v>999.90099999999995</v>
       </c>
       <c r="BB19" s="1">
-        <v>-123.535000</v>
+        <v>-123.535</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>28211.971417</v>
+        <v>28211.971417000001</v>
       </c>
       <c r="BE19" s="1">
         <v>7.836659</v>
       </c>
       <c r="BF19" s="1">
-        <v>1037.890000</v>
+        <v>1037.8900000000001</v>
       </c>
       <c r="BG19" s="1">
-        <v>-195.280000</v>
+        <v>-195.28</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>28223.228090</v>
+        <v>28223.228090000001</v>
       </c>
       <c r="BJ19" s="1">
-        <v>7.839786</v>
+        <v>7.8397860000000001</v>
       </c>
       <c r="BK19" s="1">
-        <v>1103.940000</v>
+        <v>1103.94</v>
       </c>
       <c r="BL19" s="1">
-        <v>-312.015000</v>
+        <v>-312.01499999999999</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>28234.533899</v>
+        <v>28234.533898999998</v>
       </c>
       <c r="BO19" s="1">
-        <v>7.842926</v>
+        <v>7.8429260000000003</v>
       </c>
       <c r="BP19" s="1">
-        <v>1211.680000</v>
+        <v>1211.68</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-495.923000</v>
+        <v>-495.923</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>28245.112606</v>
+        <v>28245.112605999999</v>
       </c>
       <c r="BT19" s="1">
-        <v>7.845865</v>
+        <v>7.8458649999999999</v>
       </c>
       <c r="BU19" s="1">
-        <v>1333.110000</v>
+        <v>1333.11</v>
       </c>
       <c r="BV19" s="1">
-        <v>-697.205000</v>
+        <v>-697.20500000000004</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>28256.366336</v>
+        <v>28256.366335999999</v>
       </c>
       <c r="BY19" s="1">
-        <v>7.848991</v>
+        <v>7.8489909999999998</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1468.880000</v>
+        <v>1468.88</v>
       </c>
       <c r="CA19" s="1">
-        <v>-912.254000</v>
+        <v>-912.25400000000002</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
         <v>28269.124399</v>
       </c>
       <c r="CD19" s="1">
-        <v>7.852535</v>
+        <v>7.8525349999999996</v>
       </c>
       <c r="CE19" s="1">
-        <v>1824.800000</v>
+        <v>1824.8</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1423.530000</v>
+        <v>-1423.53</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>28095.722531</v>
+        <v>28095.722530999999</v>
       </c>
       <c r="B20" s="1">
-        <v>7.804367</v>
+        <v>7.8043670000000001</v>
       </c>
       <c r="C20" s="1">
-        <v>900.881000</v>
+        <v>900.88099999999997</v>
       </c>
       <c r="D20" s="1">
-        <v>-202.303000</v>
+        <v>-202.303</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
         <v>28106.132597</v>
       </c>
       <c r="G20" s="1">
-        <v>7.807259</v>
+        <v>7.8072590000000002</v>
       </c>
       <c r="H20" s="1">
-        <v>919.250000</v>
+        <v>919.25</v>
       </c>
       <c r="I20" s="1">
-        <v>-171.333000</v>
+        <v>-171.333</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>28116.326344</v>
+        <v>28116.326344000001</v>
       </c>
       <c r="L20" s="1">
-        <v>7.810091</v>
+        <v>7.8100909999999999</v>
       </c>
       <c r="M20" s="1">
-        <v>942.195000</v>
+        <v>942.19500000000005</v>
       </c>
       <c r="N20" s="1">
-        <v>-121.073000</v>
+        <v>-121.07299999999999</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
         <v>28127.219481</v>
       </c>
       <c r="Q20" s="1">
-        <v>7.813117</v>
+        <v>7.8131170000000001</v>
       </c>
       <c r="R20" s="1">
-        <v>948.988000</v>
+        <v>948.98800000000006</v>
       </c>
       <c r="S20" s="1">
-        <v>-104.330000</v>
+        <v>-104.33</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
         <v>28137.412268</v>
       </c>
       <c r="V20" s="1">
-        <v>7.815948</v>
+        <v>7.8159479999999997</v>
       </c>
       <c r="W20" s="1">
-        <v>955.562000</v>
+        <v>955.56200000000001</v>
       </c>
       <c r="X20" s="1">
-        <v>-88.881500</v>
+        <v>-88.881500000000003</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>28147.647215</v>
+        <v>28147.647215000001</v>
       </c>
       <c r="AA20" s="1">
         <v>7.818791</v>
       </c>
       <c r="AB20" s="1">
-        <v>962.494000</v>
+        <v>962.49400000000003</v>
       </c>
       <c r="AC20" s="1">
-        <v>-76.922400</v>
+        <v>-76.922399999999996</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>28158.117762</v>
+        <v>28158.117762000002</v>
       </c>
       <c r="AF20" s="1">
-        <v>7.821699</v>
+        <v>7.8216989999999997</v>
       </c>
       <c r="AG20" s="1">
-        <v>967.122000</v>
+        <v>967.12199999999996</v>
       </c>
       <c r="AH20" s="1">
-        <v>-74.601000</v>
+        <v>-74.600999999999999</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>28168.358660</v>
+        <v>28168.358660000002</v>
       </c>
       <c r="AK20" s="1">
-        <v>7.824544</v>
+        <v>7.8245440000000004</v>
       </c>
       <c r="AL20" s="1">
-        <v>974.176000</v>
+        <v>974.17600000000004</v>
       </c>
       <c r="AM20" s="1">
-        <v>-79.090900</v>
+        <v>-79.090900000000005</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
         <v>28179.168996</v>
@@ -5227,512 +5643,512 @@
         <v>7.827547</v>
       </c>
       <c r="AQ20" s="1">
-        <v>982.106000</v>
+        <v>982.10599999999999</v>
       </c>
       <c r="AR20" s="1">
-        <v>-90.433900</v>
+        <v>-90.433899999999994</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>28190.343832</v>
+        <v>28190.343831999999</v>
       </c>
       <c r="AU20" s="1">
-        <v>7.830651</v>
+        <v>7.8306509999999996</v>
       </c>
       <c r="AV20" s="1">
-        <v>991.775000</v>
+        <v>991.77499999999998</v>
       </c>
       <c r="AW20" s="1">
-        <v>-107.992000</v>
+        <v>-107.992</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>28201.298969</v>
+        <v>28201.298968999999</v>
       </c>
       <c r="AZ20" s="1">
-        <v>7.833694</v>
+        <v>7.8336940000000004</v>
       </c>
       <c r="BA20" s="1">
-        <v>999.894000</v>
+        <v>999.89400000000001</v>
       </c>
       <c r="BB20" s="1">
-        <v>-123.529000</v>
+        <v>-123.529</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>28212.357274</v>
+        <v>28212.357274000002</v>
       </c>
       <c r="BE20" s="1">
-        <v>7.836766</v>
+        <v>7.8367659999999999</v>
       </c>
       <c r="BF20" s="1">
-        <v>1037.890000</v>
+        <v>1037.8900000000001</v>
       </c>
       <c r="BG20" s="1">
-        <v>-195.258000</v>
+        <v>-195.25800000000001</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>28223.607035</v>
+        <v>28223.607035000001</v>
       </c>
       <c r="BJ20" s="1">
-        <v>7.839891</v>
+        <v>7.8398909999999997</v>
       </c>
       <c r="BK20" s="1">
-        <v>1103.930000</v>
+        <v>1103.93</v>
       </c>
       <c r="BL20" s="1">
-        <v>-312.034000</v>
+        <v>-312.03399999999999</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>28234.928749</v>
+        <v>28234.928748999999</v>
       </c>
       <c r="BO20" s="1">
-        <v>7.843036</v>
+        <v>7.8430359999999997</v>
       </c>
       <c r="BP20" s="1">
-        <v>1211.740000</v>
+        <v>1211.74</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-495.917000</v>
+        <v>-495.91699999999997</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>28245.538141</v>
+        <v>28245.538141000001</v>
       </c>
       <c r="BT20" s="1">
-        <v>7.845983</v>
+        <v>7.8459830000000004</v>
       </c>
       <c r="BU20" s="1">
-        <v>1333.120000</v>
+        <v>1333.12</v>
       </c>
       <c r="BV20" s="1">
-        <v>-697.217000</v>
+        <v>-697.21699999999998</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>28256.815182</v>
+        <v>28256.815181999998</v>
       </c>
       <c r="BY20" s="1">
-        <v>7.849115</v>
+        <v>7.8491150000000003</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1468.820000</v>
+        <v>1468.82</v>
       </c>
       <c r="CA20" s="1">
-        <v>-912.329000</v>
+        <v>-912.32899999999995</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>28269.655645</v>
+        <v>28269.655644999999</v>
       </c>
       <c r="CD20" s="1">
-        <v>7.852682</v>
+        <v>7.8526819999999997</v>
       </c>
       <c r="CE20" s="1">
-        <v>1825.510000</v>
+        <v>1825.51</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1422.290000</v>
+        <v>-1422.29</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>28096.063780</v>
+        <v>28096.06378</v>
       </c>
       <c r="B21" s="1">
         <v>7.804462</v>
       </c>
       <c r="C21" s="1">
-        <v>900.985000</v>
+        <v>900.98500000000001</v>
       </c>
       <c r="D21" s="1">
-        <v>-202.358000</v>
+        <v>-202.358</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>28106.816052</v>
+        <v>28106.816051999998</v>
       </c>
       <c r="G21" s="1">
-        <v>7.807449</v>
+        <v>7.8074490000000001</v>
       </c>
       <c r="H21" s="1">
-        <v>918.975000</v>
+        <v>918.97500000000002</v>
       </c>
       <c r="I21" s="1">
-        <v>-170.938000</v>
+        <v>-170.93799999999999</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>28117.018263</v>
+        <v>28117.018263000002</v>
       </c>
       <c r="L21" s="1">
-        <v>7.810283</v>
+        <v>7.8102830000000001</v>
       </c>
       <c r="M21" s="1">
-        <v>942.282000</v>
+        <v>942.28200000000004</v>
       </c>
       <c r="N21" s="1">
-        <v>-120.625000</v>
+        <v>-120.625</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
         <v>28127.566185</v>
       </c>
       <c r="Q21" s="1">
-        <v>7.813213</v>
+        <v>7.8132130000000002</v>
       </c>
       <c r="R21" s="1">
-        <v>948.962000</v>
+        <v>948.96199999999999</v>
       </c>
       <c r="S21" s="1">
-        <v>-104.282000</v>
+        <v>-104.282</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>28137.758476</v>
+        <v>28137.758475999999</v>
       </c>
       <c r="V21" s="1">
-        <v>7.816044</v>
+        <v>7.8160439999999998</v>
       </c>
       <c r="W21" s="1">
-        <v>955.584000</v>
+        <v>955.58399999999995</v>
       </c>
       <c r="X21" s="1">
-        <v>-88.851800</v>
+        <v>-88.851799999999997</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
         <v>28148.000409</v>
       </c>
       <c r="AA21" s="1">
-        <v>7.818889</v>
+        <v>7.8188890000000004</v>
       </c>
       <c r="AB21" s="1">
-        <v>962.458000</v>
+        <v>962.45799999999997</v>
       </c>
       <c r="AC21" s="1">
-        <v>-76.836600</v>
+        <v>-76.836600000000004</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>28158.771520</v>
+        <v>28158.771519999998</v>
       </c>
       <c r="AF21" s="1">
-        <v>7.821881</v>
+        <v>7.8218810000000003</v>
       </c>
       <c r="AG21" s="1">
-        <v>967.119000</v>
+        <v>967.11900000000003</v>
       </c>
       <c r="AH21" s="1">
-        <v>-74.570200</v>
+        <v>-74.5702</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>28169.014370</v>
+        <v>28169.014370000001</v>
       </c>
       <c r="AK21" s="1">
-        <v>7.824726</v>
+        <v>7.8247260000000001</v>
       </c>
       <c r="AL21" s="1">
-        <v>974.190000</v>
+        <v>974.19</v>
       </c>
       <c r="AM21" s="1">
-        <v>-79.092400</v>
+        <v>-79.092399999999998</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>28179.609413</v>
+        <v>28179.609412999998</v>
       </c>
       <c r="AP21" s="1">
-        <v>7.827669</v>
+        <v>7.8276690000000002</v>
       </c>
       <c r="AQ21" s="1">
-        <v>982.117000</v>
+        <v>982.11699999999996</v>
       </c>
       <c r="AR21" s="1">
-        <v>-90.469500</v>
+        <v>-90.469499999999996</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>28190.709381</v>
+        <v>28190.709381000001</v>
       </c>
       <c r="AU21" s="1">
-        <v>7.830753</v>
+        <v>7.8307529999999996</v>
       </c>
       <c r="AV21" s="1">
-        <v>991.790000</v>
+        <v>991.79</v>
       </c>
       <c r="AW21" s="1">
-        <v>-107.995000</v>
+        <v>-107.995</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>28201.677911</v>
+        <v>28201.677910999999</v>
       </c>
       <c r="AZ21" s="1">
         <v>7.833799</v>
       </c>
       <c r="BA21" s="1">
-        <v>999.882000</v>
+        <v>999.88199999999995</v>
       </c>
       <c r="BB21" s="1">
-        <v>-123.531000</v>
+        <v>-123.53100000000001</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>28212.721338</v>
+        <v>28212.721337999999</v>
       </c>
       <c r="BE21" s="1">
-        <v>7.836867</v>
+        <v>7.8368669999999998</v>
       </c>
       <c r="BF21" s="1">
-        <v>1037.890000</v>
+        <v>1037.8900000000001</v>
       </c>
       <c r="BG21" s="1">
-        <v>-195.280000</v>
+        <v>-195.28</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
         <v>28224.033594</v>
       </c>
       <c r="BJ21" s="1">
-        <v>7.840009</v>
+        <v>7.8400090000000002</v>
       </c>
       <c r="BK21" s="1">
-        <v>1103.910000</v>
+        <v>1103.9100000000001</v>
       </c>
       <c r="BL21" s="1">
-        <v>-312.038000</v>
+        <v>-312.03800000000001</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
         <v>28235.353324</v>
       </c>
       <c r="BO21" s="1">
-        <v>7.843154</v>
+        <v>7.8431540000000002</v>
       </c>
       <c r="BP21" s="1">
-        <v>1211.710000</v>
+        <v>1211.71</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-495.926000</v>
+        <v>-495.92599999999999</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>28245.951310</v>
+        <v>28245.95131</v>
       </c>
       <c r="BT21" s="1">
-        <v>7.846098</v>
+        <v>7.8460979999999996</v>
       </c>
       <c r="BU21" s="1">
-        <v>1333.100000</v>
+        <v>1333.1</v>
       </c>
       <c r="BV21" s="1">
-        <v>-697.200000</v>
+        <v>-697.2</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>28257.273982</v>
+        <v>28257.273981999999</v>
       </c>
       <c r="BY21" s="1">
-        <v>7.849243</v>
+        <v>7.8492430000000004</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1468.760000</v>
+        <v>1468.76</v>
       </c>
       <c r="CA21" s="1">
-        <v>-912.232000</v>
+        <v>-912.23199999999997</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>28270.163517</v>
+        <v>28270.163517000001</v>
       </c>
       <c r="CD21" s="1">
-        <v>7.852823</v>
+        <v>7.8528229999999999</v>
       </c>
       <c r="CE21" s="1">
-        <v>1824.400000</v>
+        <v>1824.4</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1421.470000</v>
+        <v>-1421.47</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>28096.747762</v>
+        <v>28096.747761999999</v>
       </c>
       <c r="B22" s="1">
-        <v>7.804652</v>
+        <v>7.8046519999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>901.129000</v>
+        <v>901.12900000000002</v>
       </c>
       <c r="D22" s="1">
-        <v>-202.302000</v>
+        <v>-202.30199999999999</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
         <v>28107.171187</v>
       </c>
       <c r="G22" s="1">
-        <v>7.807548</v>
+        <v>7.8075479999999997</v>
       </c>
       <c r="H22" s="1">
-        <v>919.359000</v>
+        <v>919.35900000000004</v>
       </c>
       <c r="I22" s="1">
-        <v>-170.779000</v>
+        <v>-170.779</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>28117.361991</v>
+        <v>28117.361991000002</v>
       </c>
       <c r="L22" s="1">
         <v>7.810378</v>
       </c>
       <c r="M22" s="1">
-        <v>942.250000</v>
+        <v>942.25</v>
       </c>
       <c r="N22" s="1">
-        <v>-121.033000</v>
+        <v>-121.033</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>28127.914378</v>
+        <v>28127.914378000001</v>
       </c>
       <c r="Q22" s="1">
-        <v>7.813310</v>
+        <v>7.8133100000000004</v>
       </c>
       <c r="R22" s="1">
-        <v>948.974000</v>
+        <v>948.97400000000005</v>
       </c>
       <c r="S22" s="1">
-        <v>-104.269000</v>
+        <v>-104.26900000000001</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>28138.100220</v>
+        <v>28138.10022</v>
       </c>
       <c r="V22" s="1">
-        <v>7.816139</v>
+        <v>7.8161389999999997</v>
       </c>
       <c r="W22" s="1">
-        <v>955.488000</v>
+        <v>955.48800000000006</v>
       </c>
       <c r="X22" s="1">
-        <v>-88.859600</v>
+        <v>-88.8596</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>28148.658391</v>
+        <v>28148.658391000001</v>
       </c>
       <c r="AA22" s="1">
-        <v>7.819072</v>
+        <v>7.8190720000000002</v>
       </c>
       <c r="AB22" s="1">
-        <v>962.491000</v>
+        <v>962.49099999999999</v>
       </c>
       <c r="AC22" s="1">
-        <v>-77.012900</v>
+        <v>-77.012900000000002</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>28159.147488</v>
+        <v>28159.147487999999</v>
       </c>
       <c r="AF22" s="1">
-        <v>7.821985</v>
+        <v>7.8219849999999997</v>
       </c>
       <c r="AG22" s="1">
-        <v>967.103000</v>
+        <v>967.10299999999995</v>
       </c>
       <c r="AH22" s="1">
-        <v>-74.616000</v>
+        <v>-74.616</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>28169.406708</v>
+        <v>28169.406707999999</v>
       </c>
       <c r="AK22" s="1">
-        <v>7.824835</v>
+        <v>7.8248350000000002</v>
       </c>
       <c r="AL22" s="1">
-        <v>974.199000</v>
+        <v>974.19899999999996</v>
       </c>
       <c r="AM22" s="1">
-        <v>-79.087000</v>
+        <v>-79.087000000000003</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
         <v>28179.967524</v>
@@ -5741,829 +6157,829 @@
         <v>7.827769</v>
       </c>
       <c r="AQ22" s="1">
-        <v>982.140000</v>
+        <v>982.14</v>
       </c>
       <c r="AR22" s="1">
-        <v>-90.468300</v>
+        <v>-90.468299999999999</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
         <v>28191.074933</v>
       </c>
       <c r="AU22" s="1">
-        <v>7.830854</v>
+        <v>7.8308540000000004</v>
       </c>
       <c r="AV22" s="1">
-        <v>991.788000</v>
+        <v>991.78800000000001</v>
       </c>
       <c r="AW22" s="1">
-        <v>-107.983000</v>
+        <v>-107.983</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
         <v>28202.036022</v>
       </c>
       <c r="AZ22" s="1">
-        <v>7.833899</v>
+        <v>7.8338989999999997</v>
       </c>
       <c r="BA22" s="1">
-        <v>999.880000</v>
+        <v>999.88</v>
       </c>
       <c r="BB22" s="1">
-        <v>-123.548000</v>
+        <v>-123.548</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>28213.155380</v>
+        <v>28213.15538</v>
       </c>
       <c r="BE22" s="1">
-        <v>7.836988</v>
+        <v>7.8369879999999998</v>
       </c>
       <c r="BF22" s="1">
-        <v>1037.890000</v>
+        <v>1037.8900000000001</v>
       </c>
       <c r="BG22" s="1">
-        <v>-195.273000</v>
+        <v>-195.273</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
         <v>28224.364458</v>
       </c>
       <c r="BJ22" s="1">
-        <v>7.840101</v>
+        <v>7.8401009999999998</v>
       </c>
       <c r="BK22" s="1">
-        <v>1103.940000</v>
+        <v>1103.94</v>
       </c>
       <c r="BL22" s="1">
-        <v>-312.019000</v>
+        <v>-312.01900000000001</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>28235.747610</v>
+        <v>28235.747609999999</v>
       </c>
       <c r="BO22" s="1">
-        <v>7.843263</v>
+        <v>7.8432630000000003</v>
       </c>
       <c r="BP22" s="1">
-        <v>1211.710000</v>
+        <v>1211.71</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-495.942000</v>
+        <v>-495.94200000000001</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
         <v>28246.381341</v>
       </c>
       <c r="BT22" s="1">
-        <v>7.846217</v>
+        <v>7.8462170000000002</v>
       </c>
       <c r="BU22" s="1">
-        <v>1333.120000</v>
+        <v>1333.12</v>
       </c>
       <c r="BV22" s="1">
-        <v>-697.275000</v>
+        <v>-697.27499999999998</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>28257.719920</v>
+        <v>28257.71992</v>
       </c>
       <c r="BY22" s="1">
         <v>7.849367</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1468.710000</v>
+        <v>1468.71</v>
       </c>
       <c r="CA22" s="1">
-        <v>-912.292000</v>
+        <v>-912.29200000000003</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>28270.692252</v>
+        <v>28270.692252000001</v>
       </c>
       <c r="CD22" s="1">
-        <v>7.852970</v>
+        <v>7.85297</v>
       </c>
       <c r="CE22" s="1">
-        <v>1823.980000</v>
+        <v>1823.98</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1422.710000</v>
+        <v>-1422.71</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>28097.087025</v>
+        <v>28097.087025000001</v>
       </c>
       <c r="B23" s="1">
-        <v>7.804746</v>
+        <v>7.8047459999999997</v>
       </c>
       <c r="C23" s="1">
-        <v>901.267000</v>
+        <v>901.26700000000005</v>
       </c>
       <c r="D23" s="1">
-        <v>-202.395000</v>
+        <v>-202.39500000000001</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>28107.515907</v>
+        <v>28107.515907000001</v>
       </c>
       <c r="G23" s="1">
-        <v>7.807643</v>
+        <v>7.8076429999999997</v>
       </c>
       <c r="H23" s="1">
-        <v>918.960000</v>
+        <v>918.96</v>
       </c>
       <c r="I23" s="1">
-        <v>-171.002000</v>
+        <v>-171.00200000000001</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
         <v>28117.711174</v>
       </c>
       <c r="L23" s="1">
-        <v>7.810475</v>
+        <v>7.8104750000000003</v>
       </c>
       <c r="M23" s="1">
-        <v>942.213000</v>
+        <v>942.21299999999997</v>
       </c>
       <c r="N23" s="1">
-        <v>-120.641000</v>
+        <v>-120.64100000000001</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>28128.577560</v>
+        <v>28128.577560000002</v>
       </c>
       <c r="Q23" s="1">
-        <v>7.813494</v>
+        <v>7.8134940000000004</v>
       </c>
       <c r="R23" s="1">
-        <v>949.029000</v>
+        <v>949.029</v>
       </c>
       <c r="S23" s="1">
-        <v>-104.226000</v>
+        <v>-104.226</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>28138.764858</v>
+        <v>28138.764857999999</v>
       </c>
       <c r="V23" s="1">
-        <v>7.816324</v>
+        <v>7.8163239999999998</v>
       </c>
       <c r="W23" s="1">
-        <v>955.601000</v>
+        <v>955.601</v>
       </c>
       <c r="X23" s="1">
-        <v>-88.840200</v>
+        <v>-88.840199999999996</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>28149.047452</v>
+        <v>28149.047451999999</v>
       </c>
       <c r="AA23" s="1">
-        <v>7.819180</v>
+        <v>7.8191800000000002</v>
       </c>
       <c r="AB23" s="1">
-        <v>962.533000</v>
+        <v>962.53300000000002</v>
       </c>
       <c r="AC23" s="1">
-        <v>-76.962600</v>
+        <v>-76.962599999999995</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>28159.491712</v>
+        <v>28159.491711999999</v>
       </c>
       <c r="AF23" s="1">
-        <v>7.822081</v>
+        <v>7.8220809999999998</v>
       </c>
       <c r="AG23" s="1">
-        <v>967.094000</v>
+        <v>967.09400000000005</v>
       </c>
       <c r="AH23" s="1">
-        <v>-74.578700</v>
+        <v>-74.578699999999998</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>28169.756882</v>
+        <v>28169.756882000001</v>
       </c>
       <c r="AK23" s="1">
-        <v>7.824932</v>
+        <v>7.8249320000000004</v>
       </c>
       <c r="AL23" s="1">
-        <v>974.190000</v>
+        <v>974.19</v>
       </c>
       <c r="AM23" s="1">
-        <v>-79.061400</v>
+        <v>-79.061400000000006</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>28180.330099</v>
+        <v>28180.330098999999</v>
       </c>
       <c r="AP23" s="1">
-        <v>7.827869</v>
+        <v>7.8278689999999997</v>
       </c>
       <c r="AQ23" s="1">
-        <v>982.149000</v>
+        <v>982.149</v>
       </c>
       <c r="AR23" s="1">
-        <v>-90.458200</v>
+        <v>-90.458200000000005</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>28191.499541</v>
+        <v>28191.499541000001</v>
       </c>
       <c r="AU23" s="1">
         <v>7.830972</v>
       </c>
       <c r="AV23" s="1">
-        <v>991.768000</v>
+        <v>991.76800000000003</v>
       </c>
       <c r="AW23" s="1">
-        <v>-107.988000</v>
+        <v>-107.988</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>28202.456630</v>
+        <v>28202.456630000001</v>
       </c>
       <c r="AZ23" s="1">
-        <v>7.834016</v>
+        <v>7.8340160000000001</v>
       </c>
       <c r="BA23" s="1">
-        <v>999.898000</v>
+        <v>999.89800000000002</v>
       </c>
       <c r="BB23" s="1">
-        <v>-123.543000</v>
+        <v>-123.54300000000001</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
         <v>28213.442551</v>
       </c>
       <c r="BE23" s="1">
-        <v>7.837067</v>
+        <v>7.8370670000000002</v>
       </c>
       <c r="BF23" s="1">
-        <v>1037.880000</v>
+        <v>1037.8800000000001</v>
       </c>
       <c r="BG23" s="1">
-        <v>-195.262000</v>
+        <v>-195.262</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>28224.754776</v>
+        <v>28224.754776000002</v>
       </c>
       <c r="BJ23" s="1">
-        <v>7.840210</v>
+        <v>7.8402099999999999</v>
       </c>
       <c r="BK23" s="1">
-        <v>1103.920000</v>
+        <v>1103.92</v>
       </c>
       <c r="BL23" s="1">
-        <v>-312.020000</v>
+        <v>-312.02</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>28236.164746</v>
+        <v>28236.164745999999</v>
       </c>
       <c r="BO23" s="1">
-        <v>7.843379</v>
+        <v>7.8433789999999997</v>
       </c>
       <c r="BP23" s="1">
-        <v>1211.750000</v>
+        <v>1211.75</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-495.910000</v>
+        <v>-495.91</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>28246.810380</v>
+        <v>28246.810379999999</v>
       </c>
       <c r="BT23" s="1">
         <v>7.846336</v>
       </c>
       <c r="BU23" s="1">
-        <v>1333.120000</v>
+        <v>1333.12</v>
       </c>
       <c r="BV23" s="1">
-        <v>-697.210000</v>
+        <v>-697.21</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>28258.141981</v>
+        <v>28258.141981000001</v>
       </c>
       <c r="BY23" s="1">
-        <v>7.849484</v>
+        <v>7.8494840000000003</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1468.890000</v>
+        <v>1468.89</v>
       </c>
       <c r="CA23" s="1">
-        <v>-912.286000</v>
+        <v>-912.28599999999994</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
         <v>28271.219514</v>
       </c>
       <c r="CD23" s="1">
-        <v>7.853117</v>
+        <v>7.8531170000000001</v>
       </c>
       <c r="CE23" s="1">
-        <v>1823.820000</v>
+        <v>1823.82</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1422.370000</v>
+        <v>-1422.37</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
         <v>28097.430257</v>
       </c>
       <c r="B24" s="1">
-        <v>7.804842</v>
+        <v>7.8048419999999998</v>
       </c>
       <c r="C24" s="1">
-        <v>901.140000</v>
+        <v>901.14</v>
       </c>
       <c r="D24" s="1">
-        <v>-202.345000</v>
+        <v>-202.345</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
         <v>28108.181075</v>
       </c>
       <c r="G24" s="1">
-        <v>7.807828</v>
+        <v>7.8078279999999998</v>
       </c>
       <c r="H24" s="1">
-        <v>919.562000</v>
+        <v>919.56200000000001</v>
       </c>
       <c r="I24" s="1">
-        <v>-171.068000</v>
+        <v>-171.06800000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>28118.359447</v>
+        <v>28118.359446999999</v>
       </c>
       <c r="L24" s="1">
-        <v>7.810655</v>
+        <v>7.8106549999999997</v>
       </c>
       <c r="M24" s="1">
-        <v>942.207000</v>
+        <v>942.20699999999999</v>
       </c>
       <c r="N24" s="1">
-        <v>-120.633000</v>
+        <v>-120.633</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>28128.959458</v>
+        <v>28128.959458000001</v>
       </c>
       <c r="Q24" s="1">
-        <v>7.813600</v>
+        <v>7.8136000000000001</v>
       </c>
       <c r="R24" s="1">
-        <v>949.022000</v>
+        <v>949.02200000000005</v>
       </c>
       <c r="S24" s="1">
-        <v>-104.234000</v>
+        <v>-104.23399999999999</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>28139.136363</v>
+        <v>28139.136363000001</v>
       </c>
       <c r="V24" s="1">
         <v>7.816427</v>
       </c>
       <c r="W24" s="1">
-        <v>955.549000</v>
+        <v>955.54899999999998</v>
       </c>
       <c r="X24" s="1">
-        <v>-88.833100</v>
+        <v>-88.833100000000002</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>28149.393628</v>
+        <v>28149.393628000002</v>
       </c>
       <c r="AA24" s="1">
-        <v>7.819276</v>
+        <v>7.8192760000000003</v>
       </c>
       <c r="AB24" s="1">
-        <v>962.546000</v>
+        <v>962.54600000000005</v>
       </c>
       <c r="AC24" s="1">
-        <v>-76.791600</v>
+        <v>-76.791600000000003</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>28159.835406</v>
+        <v>28159.835405999998</v>
       </c>
       <c r="AF24" s="1">
-        <v>7.822177</v>
+        <v>7.8221769999999999</v>
       </c>
       <c r="AG24" s="1">
-        <v>967.106000</v>
+        <v>967.10599999999999</v>
       </c>
       <c r="AH24" s="1">
-        <v>-74.550800</v>
+        <v>-74.550799999999995</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
         <v>28170.102131</v>
       </c>
       <c r="AK24" s="1">
-        <v>7.825028</v>
+        <v>7.8250279999999997</v>
       </c>
       <c r="AL24" s="1">
-        <v>974.191000</v>
+        <v>974.19100000000003</v>
       </c>
       <c r="AM24" s="1">
-        <v>-79.084100</v>
+        <v>-79.084100000000007</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>28180.749250</v>
+        <v>28180.749250000001</v>
       </c>
       <c r="AP24" s="1">
-        <v>7.827986</v>
+        <v>7.8279860000000001</v>
       </c>
       <c r="AQ24" s="1">
-        <v>982.123000</v>
+        <v>982.12300000000005</v>
       </c>
       <c r="AR24" s="1">
-        <v>-90.473200</v>
+        <v>-90.473200000000006</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>28191.808516</v>
+        <v>28191.808516000001</v>
       </c>
       <c r="AU24" s="1">
-        <v>7.831058</v>
+        <v>7.8310579999999996</v>
       </c>
       <c r="AV24" s="1">
-        <v>991.793000</v>
+        <v>991.79300000000001</v>
       </c>
       <c r="AW24" s="1">
-        <v>-107.999000</v>
+        <v>-107.999</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>28202.754725</v>
+        <v>28202.754724999999</v>
       </c>
       <c r="AZ24" s="1">
-        <v>7.834099</v>
+        <v>7.8340990000000001</v>
       </c>
       <c r="BA24" s="1">
-        <v>999.885000</v>
+        <v>999.88499999999999</v>
       </c>
       <c r="BB24" s="1">
-        <v>-123.518000</v>
+        <v>-123.518</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>28213.803607</v>
+        <v>28213.803607000002</v>
       </c>
       <c r="BE24" s="1">
-        <v>7.837168</v>
+        <v>7.8371680000000001</v>
       </c>
       <c r="BF24" s="1">
-        <v>1037.890000</v>
+        <v>1037.8900000000001</v>
       </c>
       <c r="BG24" s="1">
-        <v>-195.242000</v>
+        <v>-195.24199999999999</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>28225.127310</v>
+        <v>28225.12731</v>
       </c>
       <c r="BJ24" s="1">
-        <v>7.840313</v>
+        <v>7.8403130000000001</v>
       </c>
       <c r="BK24" s="1">
-        <v>1103.910000</v>
+        <v>1103.9100000000001</v>
       </c>
       <c r="BL24" s="1">
-        <v>-312.014000</v>
+        <v>-312.01400000000001</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>28236.565017</v>
+        <v>28236.565017000001</v>
       </c>
       <c r="BO24" s="1">
-        <v>7.843490</v>
+        <v>7.8434900000000001</v>
       </c>
       <c r="BP24" s="1">
-        <v>1211.690000</v>
+        <v>1211.69</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-495.921000</v>
+        <v>-495.92099999999999</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>28247.233995</v>
+        <v>28247.233994999999</v>
       </c>
       <c r="BT24" s="1">
-        <v>7.846454</v>
+        <v>7.8464539999999996</v>
       </c>
       <c r="BU24" s="1">
-        <v>1333.150000</v>
+        <v>1333.15</v>
       </c>
       <c r="BV24" s="1">
-        <v>-697.254000</v>
+        <v>-697.25400000000002</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
         <v>28258.564574</v>
       </c>
       <c r="BY24" s="1">
-        <v>7.849601</v>
+        <v>7.8496009999999998</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1468.790000</v>
+        <v>1468.79</v>
       </c>
       <c r="CA24" s="1">
-        <v>-912.283000</v>
+        <v>-912.28300000000002</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>28271.743771</v>
+        <v>28271.743771000001</v>
       </c>
       <c r="CD24" s="1">
         <v>7.853262</v>
       </c>
       <c r="CE24" s="1">
-        <v>1824.280000</v>
+        <v>1824.28</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1421.800000</v>
+        <v>-1421.8</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>28098.083984</v>
+        <v>28098.083984000001</v>
       </c>
       <c r="B25" s="1">
-        <v>7.805023</v>
+        <v>7.8050230000000003</v>
       </c>
       <c r="C25" s="1">
-        <v>900.961000</v>
+        <v>900.96100000000001</v>
       </c>
       <c r="D25" s="1">
-        <v>-202.217000</v>
+        <v>-202.21700000000001</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>28108.555058</v>
+        <v>28108.555058000002</v>
       </c>
       <c r="G25" s="1">
-        <v>7.807932</v>
+        <v>7.8079320000000001</v>
       </c>
       <c r="H25" s="1">
-        <v>919.037000</v>
+        <v>919.03700000000003</v>
       </c>
       <c r="I25" s="1">
-        <v>-170.696000</v>
+        <v>-170.696</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>28118.749332</v>
+        <v>28118.749331999999</v>
       </c>
       <c r="L25" s="1">
-        <v>7.810764</v>
+        <v>7.8107639999999998</v>
       </c>
       <c r="M25" s="1">
-        <v>942.401000</v>
+        <v>942.40099999999995</v>
       </c>
       <c r="N25" s="1">
-        <v>-120.808000</v>
+        <v>-120.80800000000001</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>28129.309623</v>
+        <v>28129.309623000001</v>
       </c>
       <c r="Q25" s="1">
-        <v>7.813697</v>
+        <v>7.8136970000000003</v>
       </c>
       <c r="R25" s="1">
-        <v>949.092000</v>
+        <v>949.09199999999998</v>
       </c>
       <c r="S25" s="1">
-        <v>-104.273000</v>
+        <v>-104.273</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>28139.488025</v>
+        <v>28139.488024999999</v>
       </c>
       <c r="V25" s="1">
-        <v>7.816524</v>
+        <v>7.8165240000000002</v>
       </c>
       <c r="W25" s="1">
-        <v>955.584000</v>
+        <v>955.58399999999995</v>
       </c>
       <c r="X25" s="1">
-        <v>-88.837600</v>
+        <v>-88.837599999999995</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>28149.741687</v>
+        <v>28149.741687000002</v>
       </c>
       <c r="AA25" s="1">
-        <v>7.819373</v>
+        <v>7.8193729999999997</v>
       </c>
       <c r="AB25" s="1">
-        <v>962.527000</v>
+        <v>962.52700000000004</v>
       </c>
       <c r="AC25" s="1">
-        <v>-76.929300</v>
+        <v>-76.929299999999998</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>28160.268414</v>
+        <v>28160.268413999998</v>
       </c>
       <c r="AF25" s="1">
-        <v>7.822297</v>
+        <v>7.8222969999999998</v>
       </c>
       <c r="AG25" s="1">
-        <v>967.101000</v>
+        <v>967.101</v>
       </c>
       <c r="AH25" s="1">
-        <v>-74.541200</v>
+        <v>-74.541200000000003</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>28170.532624</v>
+        <v>28170.532623999999</v>
       </c>
       <c r="AK25" s="1">
-        <v>7.825148</v>
+        <v>7.8251480000000004</v>
       </c>
       <c r="AL25" s="1">
-        <v>974.194000</v>
+        <v>974.19399999999996</v>
       </c>
       <c r="AM25" s="1">
-        <v>-79.047300</v>
+        <v>-79.047300000000007</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>28181.049830</v>
+        <v>28181.04983</v>
       </c>
       <c r="AP25" s="1">
-        <v>7.828069</v>
+        <v>7.8280690000000002</v>
       </c>
       <c r="AQ25" s="1">
-        <v>982.103000</v>
+        <v>982.10299999999995</v>
       </c>
       <c r="AR25" s="1">
-        <v>-90.470000</v>
+        <v>-90.47</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>28192.168148</v>
+        <v>28192.168148000001</v>
       </c>
       <c r="AU25" s="1">
-        <v>7.831158</v>
+        <v>7.8311580000000003</v>
       </c>
       <c r="AV25" s="1">
-        <v>991.784000</v>
+        <v>991.78399999999999</v>
       </c>
       <c r="AW25" s="1">
-        <v>-107.988000</v>
+        <v>-107.988</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
         <v>28203.112342</v>
       </c>
       <c r="AZ25" s="1">
-        <v>7.834198</v>
+        <v>7.8341979999999998</v>
       </c>
       <c r="BA25" s="1">
-        <v>999.888000</v>
+        <v>999.88800000000003</v>
       </c>
       <c r="BB25" s="1">
-        <v>-123.527000</v>
+        <v>-123.527</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>28214.163207</v>
+        <v>28214.163207000001</v>
       </c>
       <c r="BE25" s="1">
-        <v>7.837268</v>
+        <v>7.8372679999999999</v>
       </c>
       <c r="BF25" s="1">
-        <v>1037.890000</v>
+        <v>1037.8900000000001</v>
       </c>
       <c r="BG25" s="1">
-        <v>-195.257000</v>
+        <v>-195.25700000000001</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
         <v>28225.877719</v>
@@ -6572,315 +6988,315 @@
         <v>7.840522</v>
       </c>
       <c r="BK25" s="1">
-        <v>1103.920000</v>
+        <v>1103.92</v>
       </c>
       <c r="BL25" s="1">
-        <v>-312.018000</v>
+        <v>-312.01799999999997</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>28236.986655</v>
+        <v>28236.986655000001</v>
       </c>
       <c r="BO25" s="1">
-        <v>7.843607</v>
+        <v>7.8436070000000004</v>
       </c>
       <c r="BP25" s="1">
-        <v>1211.700000</v>
+        <v>1211.7</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-495.918000</v>
+        <v>-495.91800000000001</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>28247.653610</v>
+        <v>28247.653610000001</v>
       </c>
       <c r="BT25" s="1">
-        <v>7.846570</v>
+        <v>7.8465699999999998</v>
       </c>
       <c r="BU25" s="1">
-        <v>1333.200000</v>
+        <v>1333.2</v>
       </c>
       <c r="BV25" s="1">
-        <v>-697.231000</v>
+        <v>-697.23099999999999</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>28258.989149</v>
+        <v>28258.989149000001</v>
       </c>
       <c r="BY25" s="1">
-        <v>7.849719</v>
+        <v>7.8497190000000003</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1468.810000</v>
+        <v>1468.81</v>
       </c>
       <c r="CA25" s="1">
-        <v>-912.287000</v>
+        <v>-912.28700000000003</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>28272.578537</v>
+        <v>28272.578537000001</v>
       </c>
       <c r="CD25" s="1">
-        <v>7.853494</v>
+        <v>7.8534940000000004</v>
       </c>
       <c r="CE25" s="1">
-        <v>1823.880000</v>
+        <v>1823.88</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1423.140000</v>
+        <v>-1423.14</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>28098.456976</v>
+        <v>28098.456976000001</v>
       </c>
       <c r="B26" s="1">
-        <v>7.805127</v>
+        <v>7.8051269999999997</v>
       </c>
       <c r="C26" s="1">
-        <v>901.036000</v>
+        <v>901.03599999999994</v>
       </c>
       <c r="D26" s="1">
-        <v>-202.251000</v>
+        <v>-202.251</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>28108.898754</v>
+        <v>28108.898754000002</v>
       </c>
       <c r="G26" s="1">
-        <v>7.808027</v>
+        <v>7.8080270000000001</v>
       </c>
       <c r="H26" s="1">
-        <v>919.039000</v>
+        <v>919.03899999999999</v>
       </c>
       <c r="I26" s="1">
-        <v>-170.884000</v>
+        <v>-170.88399999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>28119.096004</v>
+        <v>28119.096003999999</v>
       </c>
       <c r="L26" s="1">
-        <v>7.810860</v>
+        <v>7.8108599999999999</v>
       </c>
       <c r="M26" s="1">
-        <v>942.238000</v>
+        <v>942.23800000000006</v>
       </c>
       <c r="N26" s="1">
-        <v>-121.129000</v>
+        <v>-121.129</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
         <v>28129.659303</v>
       </c>
       <c r="Q26" s="1">
-        <v>7.813794</v>
+        <v>7.8137939999999997</v>
       </c>
       <c r="R26" s="1">
-        <v>949.113000</v>
+        <v>949.11300000000006</v>
       </c>
       <c r="S26" s="1">
-        <v>-104.245000</v>
+        <v>-104.245</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>28139.914090</v>
+        <v>28139.914089999998</v>
       </c>
       <c r="V26" s="1">
         <v>7.816643</v>
       </c>
       <c r="W26" s="1">
-        <v>955.519000</v>
+        <v>955.51900000000001</v>
       </c>
       <c r="X26" s="1">
-        <v>-88.877000</v>
+        <v>-88.876999999999995</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>28150.158956</v>
+        <v>28150.158955999999</v>
       </c>
       <c r="AA26" s="1">
-        <v>7.819489</v>
+        <v>7.8194889999999999</v>
       </c>
       <c r="AB26" s="1">
-        <v>962.557000</v>
+        <v>962.55700000000002</v>
       </c>
       <c r="AC26" s="1">
-        <v>-76.959600</v>
+        <v>-76.959599999999995</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>28160.547663</v>
+        <v>28160.547663000001</v>
       </c>
       <c r="AF26" s="1">
-        <v>7.822374</v>
+        <v>7.8223739999999999</v>
       </c>
       <c r="AG26" s="1">
-        <v>967.056000</v>
+        <v>967.05600000000004</v>
       </c>
       <c r="AH26" s="1">
-        <v>-74.596000</v>
+        <v>-74.596000000000004</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
         <v>28170.812865</v>
       </c>
       <c r="AK26" s="1">
-        <v>7.825226</v>
+        <v>7.8252259999999998</v>
       </c>
       <c r="AL26" s="1">
-        <v>974.181000</v>
+        <v>974.18100000000004</v>
       </c>
       <c r="AM26" s="1">
-        <v>-79.062400</v>
+        <v>-79.062399999999997</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
         <v>28181.410386</v>
       </c>
       <c r="AP26" s="1">
-        <v>7.828170</v>
+        <v>7.8281700000000001</v>
       </c>
       <c r="AQ26" s="1">
-        <v>982.114000</v>
+        <v>982.11400000000003</v>
       </c>
       <c r="AR26" s="1">
-        <v>-90.492100</v>
+        <v>-90.492099999999994</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>28192.535155</v>
+        <v>28192.535155000001</v>
       </c>
       <c r="AU26" s="1">
-        <v>7.831260</v>
+        <v>7.8312600000000003</v>
       </c>
       <c r="AV26" s="1">
-        <v>991.774000</v>
+        <v>991.774</v>
       </c>
       <c r="AW26" s="1">
-        <v>-107.982000</v>
+        <v>-107.982</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
         <v>28203.471973</v>
       </c>
       <c r="AZ26" s="1">
-        <v>7.834298</v>
+        <v>7.8342980000000004</v>
       </c>
       <c r="BA26" s="1">
-        <v>999.867000</v>
+        <v>999.86699999999996</v>
       </c>
       <c r="BB26" s="1">
-        <v>-123.521000</v>
+        <v>-123.521</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
         <v>28214.887896</v>
       </c>
       <c r="BE26" s="1">
-        <v>7.837469</v>
+        <v>7.8374689999999996</v>
       </c>
       <c r="BF26" s="1">
-        <v>1037.890000</v>
+        <v>1037.8900000000001</v>
       </c>
       <c r="BG26" s="1">
-        <v>-195.254000</v>
+        <v>-195.25399999999999</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>28226.256166</v>
+        <v>28226.256165999999</v>
       </c>
       <c r="BJ26" s="1">
-        <v>7.840627</v>
+        <v>7.8406269999999996</v>
       </c>
       <c r="BK26" s="1">
-        <v>1103.910000</v>
+        <v>1103.9100000000001</v>
       </c>
       <c r="BL26" s="1">
-        <v>-312.012000</v>
+        <v>-312.012</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>28237.394330</v>
+        <v>28237.394329999999</v>
       </c>
       <c r="BO26" s="1">
-        <v>7.843721</v>
+        <v>7.8437210000000004</v>
       </c>
       <c r="BP26" s="1">
-        <v>1211.740000</v>
+        <v>1211.74</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-495.907000</v>
+        <v>-495.90699999999998</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>28248.080139</v>
+        <v>28248.080139000002</v>
       </c>
       <c r="BT26" s="1">
-        <v>7.846689</v>
+        <v>7.8466889999999996</v>
       </c>
       <c r="BU26" s="1">
-        <v>1333.170000</v>
+        <v>1333.17</v>
       </c>
       <c r="BV26" s="1">
-        <v>-697.196000</v>
+        <v>-697.19600000000003</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>28259.725211</v>
+        <v>28259.725211000001</v>
       </c>
       <c r="BY26" s="1">
-        <v>7.849924</v>
+        <v>7.8499239999999997</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1468.810000</v>
+        <v>1468.81</v>
       </c>
       <c r="CA26" s="1">
-        <v>-912.224000</v>
+        <v>-912.22400000000005</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
         <v>28272.819129</v>
@@ -6889,15 +7305,16 @@
         <v>7.853561</v>
       </c>
       <c r="CE26" s="1">
-        <v>1825.350000</v>
+        <v>1825.35</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1422.940000</v>
+        <v>-1422.94</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>